--- a/tests/Test_plates/Test_1/Test_plate_amalgamation.xlsx
+++ b/tests/Test_plates/Test_1/Test_plate_amalgamation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/sensing_array_paper_2019/tests/Test_plates/Test_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/array_sensing/tests/Test_plates/Test_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE138802-57F6-0C41-A2E8-14B05DDBC5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57CBD36-2E10-A047-A924-F933FFF6AFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="15240" xr2:uid="{B18D36EA-6805-F24A-BB5B-53B1CB3A2B6F}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Scaled readings</t>
   </si>
@@ -94,9 +96,6 @@
   </si>
   <si>
     <t>Merged readings</t>
-  </si>
-  <si>
-    <t>Standardised readings</t>
   </si>
 </sst>
 </file>
@@ -489,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E51466-2804-9745-9823-46FFF741CAE6}">
-  <dimension ref="A2:O110"/>
+  <dimension ref="A2:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,46 +553,46 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.69471683770429493</v>
+        <v>0.69546919431279619</v>
       </c>
       <c r="C4">
-        <v>0.82051282051282048</v>
+        <v>0.83960720130932898</v>
       </c>
       <c r="D4">
-        <v>0.74264972776769511</v>
+        <v>0.74332260659694283</v>
       </c>
       <c r="E4">
-        <v>0.62919964278015583</v>
+        <v>0.6299403774048804</v>
       </c>
       <c r="F4">
-        <v>0.70902281832433378</v>
+        <v>0.70984410960093791</v>
       </c>
       <c r="G4">
-        <v>0.67287646928365497</v>
+        <v>0.67752514210756454</v>
       </c>
       <c r="H4">
-        <v>0.41729284611425632</v>
+        <v>0.42116564417177915</v>
       </c>
       <c r="I4">
-        <v>0.4108563406644829</v>
+        <v>0.42824704813805631</v>
       </c>
       <c r="J4">
-        <v>0.4009171306911235</v>
+        <v>0.41340602950609368</v>
       </c>
       <c r="K4">
-        <v>0.55381990023628247</v>
+        <v>0.55571531272465857</v>
       </c>
       <c r="L4">
-        <v>0.24364020351348756</v>
+        <v>0.2483304712841061</v>
       </c>
       <c r="M4">
-        <v>0.18682399213372664</v>
+        <v>0.19051947143955814</v>
       </c>
       <c r="N4">
-        <v>0.35471942313025795</v>
+        <v>0.35665238029402274</v>
       </c>
       <c r="O4">
-        <v>0.31818181818181818</v>
+        <v>0.39890710382513661</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -601,46 +600,46 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.85077917141771187</v>
+        <v>0.85114691943127962</v>
       </c>
       <c r="C5">
-        <v>0.89010989010989006</v>
+        <v>0.90180032733224225</v>
       </c>
       <c r="D5">
-        <v>0.87953216374269005</v>
+        <v>0.87984714400643604</v>
       </c>
       <c r="E5">
-        <v>0.74523450250977741</v>
+        <v>0.74574343844120716</v>
       </c>
       <c r="F5">
-        <v>0.75126284619404282</v>
+        <v>0.75196491380433361</v>
       </c>
       <c r="G5">
-        <v>0.70037702373031718</v>
+        <v>0.70463489287275904</v>
       </c>
       <c r="H5">
-        <v>0.53113741636644363</v>
+        <v>0.53425357873210633</v>
       </c>
       <c r="I5">
-        <v>0.52784277023865234</v>
+        <v>0.54178019981834691</v>
       </c>
       <c r="J5">
-        <v>0.429741238126433</v>
+        <v>0.44162924951892241</v>
       </c>
       <c r="K5">
-        <v>0.57272249934365971</v>
+        <v>0.57453761192078945</v>
       </c>
       <c r="L5">
-        <v>0.37381203801478352</v>
+        <v>0.37769509635565734</v>
       </c>
       <c r="M5">
-        <v>0.31479140328697852</v>
+        <v>0.31790533454520031</v>
       </c>
       <c r="N5">
-        <v>0.38624387538134419</v>
+        <v>0.38808240011060419</v>
       </c>
       <c r="O5">
-        <v>0.33471074380165289</v>
+        <v>0.4134790528233151</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -648,46 +647,46 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.86621056632459137</v>
+        <v>0.86654028436018959</v>
       </c>
       <c r="C6">
-        <v>0.91208791208791207</v>
+        <v>0.92144026186579375</v>
       </c>
       <c r="D6">
-        <v>0.89832627545876187</v>
+        <v>0.89859211584875298</v>
       </c>
       <c r="E6">
-        <v>0.7675915375850707</v>
+        <v>0.76805581166635928</v>
       </c>
       <c r="F6">
-        <v>0.75396272426406552</v>
+        <v>0.75465717139259192</v>
       </c>
       <c r="G6">
-        <v>0.70126413838988688</v>
+        <v>0.70550940096195891</v>
       </c>
       <c r="H6">
-        <v>0.51013896037056095</v>
+        <v>0.51339468302658486</v>
       </c>
       <c r="I6">
-        <v>0.57463734206832007</v>
+        <v>0.58719346049046317</v>
       </c>
       <c r="J6">
-        <v>0.43760235833606287</v>
+        <v>0.44932649134060293</v>
       </c>
       <c r="K6">
-        <v>0.58860593331583089</v>
+        <v>0.59035357166198288</v>
       </c>
       <c r="L6">
-        <v>0.38840357108572526</v>
+        <v>0.39219614577370732</v>
       </c>
       <c r="M6">
-        <v>0.30832982160415789</v>
+        <v>0.31147311752779139</v>
       </c>
       <c r="N6">
-        <v>0.4012203013774614</v>
+        <v>0.40301396377713261</v>
       </c>
       <c r="O6">
-        <v>0.36363636363636365</v>
+        <v>0.43897996357012753</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -695,46 +694,46 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.87153173698213604</v>
+        <v>0.87184834123222754</v>
       </c>
       <c r="C7">
-        <v>0.87912087912087911</v>
+        <v>0.89198036006546644</v>
       </c>
       <c r="D7">
-        <v>0.89082476305706793</v>
+        <v>0.89111021721641193</v>
       </c>
       <c r="E7">
-        <v>0.76020078218827947</v>
+        <v>0.76067982051754868</v>
       </c>
       <c r="F7">
-        <v>0.73131858561226271</v>
+        <v>0.73207694645881283</v>
       </c>
       <c r="G7">
-        <v>0.62763362164559766</v>
+        <v>0.63292522955837338</v>
       </c>
       <c r="H7">
-        <v>0.4901698404529079</v>
+        <v>0.49355828220858894</v>
       </c>
       <c r="I7">
-        <v>0.55124005615348615</v>
+        <v>0.56448683015440504</v>
       </c>
       <c r="J7">
-        <v>0.43105142482803799</v>
+        <v>0.44291212315586914</v>
       </c>
       <c r="K7">
-        <v>0.57219742714623256</v>
+        <v>0.57401477027645254</v>
       </c>
       <c r="L7">
-        <v>0.38091581069405778</v>
+        <v>0.38475481778286585</v>
       </c>
       <c r="M7">
-        <v>0.31198201994662172</v>
+        <v>0.31510871845067467</v>
       </c>
       <c r="N7">
-        <v>0.37949523897568643</v>
+        <v>0.38135397944605742</v>
       </c>
       <c r="O7">
-        <v>0.33471074380165289</v>
+        <v>0.4134790528233151</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -742,46 +741,46 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.88430254656024321</v>
+        <v>0.88458767772511848</v>
       </c>
       <c r="C8">
-        <v>0.94505494505494503</v>
+        <v>0.95090016366612107</v>
       </c>
       <c r="D8">
-        <v>0.87848356523492643</v>
+        <v>0.87880128720836681</v>
       </c>
       <c r="E8">
-        <v>0.77953992547654971</v>
+        <v>0.77998033069026984</v>
       </c>
       <c r="F8">
-        <v>0.78984497474307613</v>
+        <v>0.79043814321073425</v>
       </c>
       <c r="G8">
-        <v>0.69328010645375915</v>
+        <v>0.69763882815916045</v>
       </c>
       <c r="H8">
-        <v>0.52557900154400417</v>
+        <v>0.52873210633946832</v>
       </c>
       <c r="I8">
-        <v>0.60364997660271413</v>
+        <v>0.61534968210717533</v>
       </c>
       <c r="J8">
-        <v>0.4683917458237799</v>
+        <v>0.47947402180885185</v>
       </c>
       <c r="K8">
-        <v>0.24822788133368337</v>
+        <v>0.25142147572054113</v>
       </c>
       <c r="L8">
-        <v>0.36421234520495344</v>
+        <v>0.36815493226483498</v>
       </c>
       <c r="M8">
-        <v>0.29315915156623124</v>
+        <v>0.29637139061735301</v>
       </c>
       <c r="N8">
-        <v>0.41333086807802533</v>
+        <v>0.41508825291488088</v>
       </c>
       <c r="O8">
-        <v>0.37603305785123969</v>
+        <v>0.44990892531876137</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -789,46 +788,46 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.84032360287812702</v>
+        <v>0.84072145779100038</v>
       </c>
       <c r="C9">
-        <v>0.80797101449275366</v>
+        <v>0.82875605815831987</v>
       </c>
       <c r="D9">
-        <v>0.87497507477567293</v>
+        <v>0.87530824914485716</v>
       </c>
       <c r="E9">
-        <v>0.75484634286927765</v>
+        <v>0.7553436270057523</v>
       </c>
       <c r="F9">
-        <v>0.78029225397646451</v>
+        <v>0.7809249548697671</v>
       </c>
       <c r="G9">
-        <v>0.64786249449096522</v>
+        <v>0.65298588490770904</v>
       </c>
       <c r="H9">
-        <v>0.51867771978303145</v>
+        <v>0.52195568204919696</v>
       </c>
       <c r="I9">
-        <v>0.60077686663789387</v>
+        <v>0.61199664429530198</v>
       </c>
       <c r="J9">
-        <v>0.45013477088948789</v>
+        <v>0.46227347611202635</v>
       </c>
       <c r="K9">
-        <v>0.54989112335083901</v>
+        <v>0.55181429755755373</v>
       </c>
       <c r="L9">
-        <v>0.3057730832270989</v>
+        <v>0.30998280387365373</v>
       </c>
       <c r="M9">
-        <v>0.2689712160859386</v>
+        <v>0.27232846665295773</v>
       </c>
       <c r="N9">
-        <v>0.3830881049459316</v>
+        <v>0.38491449781273473</v>
       </c>
       <c r="O9">
-        <v>0.31982942430703626</v>
+        <v>0.40485074626865669</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -836,46 +835,46 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.87723222607463747</v>
+        <v>0.87753811825957606</v>
       </c>
       <c r="C10">
-        <v>0.86956521739130432</v>
+        <v>0.88368336025848138</v>
       </c>
       <c r="D10">
-        <v>0.8808773678963111</v>
+        <v>0.88119481345954975</v>
       </c>
       <c r="E10">
-        <v>0.76121712222795257</v>
+        <v>0.76170148349984867</v>
       </c>
       <c r="F10">
-        <v>0.75236001551791021</v>
+        <v>0.75307315395856611</v>
       </c>
       <c r="G10">
-        <v>0.64565888056412513</v>
+        <v>0.65081433224755703</v>
       </c>
       <c r="H10">
-        <v>0.55265581823764198</v>
+        <v>0.55570237853222204</v>
       </c>
       <c r="I10">
-        <v>0.5213638325420803</v>
+        <v>0.53481543624161076</v>
       </c>
       <c r="J10">
-        <v>0.44070080862533695</v>
+        <v>0.45304777594728174</v>
       </c>
       <c r="K10">
-        <v>0.58319456897655952</v>
+        <v>0.58497544799438816</v>
       </c>
       <c r="L10">
-        <v>0.34765980695683846</v>
+        <v>0.35161553081726854</v>
       </c>
       <c r="M10">
-        <v>0.28343203415507506</v>
+        <v>0.28672287339776542</v>
       </c>
       <c r="N10">
-        <v>0.35596525438751997</v>
+        <v>0.35787194556139806</v>
       </c>
       <c r="O10">
-        <v>0.31130063965884863</v>
+        <v>0.39738805970149255</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -883,46 +882,46 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.83808671662379297</v>
+        <v>0.83849014503532915</v>
       </c>
       <c r="C11">
-        <v>0.84782608695652173</v>
+        <v>0.86429725363489496</v>
       </c>
       <c r="D11">
-        <v>0.89611166500498507</v>
+        <v>0.89638851324476976</v>
       </c>
       <c r="E11">
-        <v>0.76710250887358555</v>
+        <v>0.76757493188010895</v>
       </c>
       <c r="F11">
-        <v>0.74882538040432778</v>
+        <v>0.74954869767042032</v>
       </c>
       <c r="G11">
-        <v>0.66549140590568534</v>
+        <v>0.67035830618892511</v>
       </c>
       <c r="H11">
-        <v>0.53239177156892847</v>
+        <v>0.53557633665379145</v>
       </c>
       <c r="I11">
-        <v>0.11652999568407424</v>
+        <v>0.14135906040268456</v>
       </c>
       <c r="J11">
-        <v>0.46495956873315364</v>
+        <v>0.47677100494233937</v>
       </c>
       <c r="K11">
-        <v>0.58575637248623036</v>
+        <v>0.5875263057202984</v>
       </c>
       <c r="L11">
-        <v>0.32926607175377892</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M11">
-        <v>0.30863517421842723</v>
+        <v>0.31181026801014461</v>
       </c>
       <c r="N11">
-        <v>0.37138805176387163</v>
+        <v>0.37324908311607974</v>
       </c>
       <c r="O11">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -930,46 +929,46 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.84874920776945162</v>
+        <v>0.84912606917069544</v>
       </c>
       <c r="C12">
-        <v>0.75724637681159424</v>
+        <v>0.78352180936995153</v>
       </c>
       <c r="D12">
-        <v>0.92179461615154534</v>
+        <v>0.92200302283032376</v>
       </c>
       <c r="E12">
-        <v>0.75721263234535696</v>
+        <v>0.75770511656070239</v>
       </c>
       <c r="F12">
-        <v>0.75037717142980298</v>
+        <v>0.7510960199432648</v>
       </c>
       <c r="G12">
-        <v>0.65888056412516527</v>
+        <v>0.66384364820846908</v>
       </c>
       <c r="H12">
-        <v>0.56207143588169073</v>
+        <v>0.5650538727383615</v>
       </c>
       <c r="I12">
-        <v>0.63012516184721623</v>
+        <v>0.64052013422818788</v>
       </c>
       <c r="J12">
-        <v>0.41105121293800539</v>
+        <v>0.42405271828665569</v>
       </c>
       <c r="K12">
-        <v>0.53721019597796849</v>
+        <v>0.53918755181429756</v>
       </c>
       <c r="L12">
-        <v>0.32762702604261518</v>
+        <v>0.33170422662684407</v>
       </c>
       <c r="M12">
-        <v>0.31028783914061425</v>
+        <v>0.31345534306669409</v>
       </c>
       <c r="N12">
-        <v>0.35800390001772736</v>
+        <v>0.35990455569793645</v>
       </c>
       <c r="O12">
-        <v>0.31556503198294245</v>
+        <v>0.40111940298507465</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -977,46 +976,46 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>0.86328896842262237</v>
+        <v>0.86362960208255857</v>
       </c>
       <c r="C13">
-        <v>0.83695652173913049</v>
+        <v>0.8546042003231018</v>
       </c>
       <c r="D13">
-        <v>0.91988035892323028</v>
+        <v>0.9200938668363694</v>
       </c>
       <c r="E13">
-        <v>0.75775869914752902</v>
+        <v>0.75825007568876779</v>
       </c>
       <c r="F13">
-        <v>0.78322341480236213</v>
+        <v>0.78384767471847328</v>
       </c>
       <c r="G13">
-        <v>0.65623622741295728</v>
+        <v>0.66123778501628661</v>
       </c>
       <c r="H13">
-        <v>0.55736362705966636</v>
+        <v>0.56037812563529177</v>
       </c>
       <c r="I13">
-        <v>0.63012516184721623</v>
+        <v>0.64052013422818788</v>
       </c>
       <c r="J13">
-        <v>0.41172506738544473</v>
+        <v>0.42471169686985172</v>
       </c>
       <c r="K13">
-        <v>0.5858844626617139</v>
+        <v>0.58765384860659398</v>
       </c>
       <c r="L13">
-        <v>0.32489528319067568</v>
+        <v>0.32898904878269525</v>
       </c>
       <c r="M13">
-        <v>0.31290455860074368</v>
+        <v>0.31606004523956405</v>
       </c>
       <c r="N13">
-        <v>0.37191987236305618</v>
+        <v>0.37377932923865492</v>
       </c>
       <c r="O13">
-        <v>0.28144989339019189</v>
+        <v>0.3712686567164179</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1024,46 +1023,46 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0.87373103684270559</v>
+        <v>0.87400887742327094</v>
       </c>
       <c r="C14">
-        <v>0.92022263450834885</v>
+        <v>0.92797319932998323</v>
       </c>
       <c r="D14">
-        <v>0.90449991788471018</v>
+        <v>0.90472679610059803</v>
       </c>
       <c r="E14">
-        <v>0.73464586428925216</v>
+        <v>0.73512143872442992</v>
       </c>
       <c r="F14">
-        <v>0.66439390670176501</v>
+        <v>0.66523180233308943</v>
       </c>
       <c r="G14">
-        <v>0.50077639751552794</v>
+        <v>0.50633397312859885</v>
       </c>
       <c r="H14">
-        <v>0.54489516864175025</v>
+        <v>0.54788317862802804</v>
       </c>
       <c r="I14">
-        <v>0.53846153846153844</v>
+        <v>0.55179282868525892</v>
       </c>
       <c r="J14">
-        <v>0.40093240093240096</v>
+        <v>0.41228356746161388</v>
       </c>
       <c r="K14">
-        <v>0.60044209257150516</v>
+        <v>0.60198838993794623</v>
       </c>
       <c r="L14">
-        <v>0.3123489024272314</v>
+        <v>0.31618424848543131</v>
       </c>
       <c r="M14">
-        <v>0.27591016878225694</v>
+        <v>0.27882745207001947</v>
       </c>
       <c r="N14">
-        <v>0.30313556139692077</v>
+        <v>0.30502761913678494</v>
       </c>
       <c r="O14">
-        <v>0.22604422604422605</v>
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1071,46 +1070,46 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.83236378844910841</v>
+        <v>0.83273265298380061</v>
       </c>
       <c r="C15">
-        <v>0.71243042671614099</v>
+        <v>0.74036850921273034</v>
       </c>
       <c r="D15">
-        <v>0.92034816882903592</v>
+        <v>0.92053739657573519</v>
       </c>
       <c r="E15">
-        <v>0.7847944526993561</v>
+        <v>0.78518014955812376</v>
       </c>
       <c r="F15">
-        <v>0.92521468950934282</v>
+        <v>0.92540140329731824</v>
       </c>
       <c r="G15">
-        <v>0.63586956521739135</v>
+        <v>0.63992322456813822</v>
       </c>
       <c r="H15">
-        <v>0.51185050136736554</v>
+        <v>0.51505546751188591</v>
       </c>
       <c r="I15">
-        <v>0.53230769230769226</v>
+        <v>0.54581673306772904</v>
       </c>
       <c r="J15">
-        <v>0.39826839826839827</v>
+        <v>0.40967004246978111</v>
       </c>
       <c r="K15">
-        <v>0.54377386295130281</v>
+        <v>0.54553946753853344</v>
       </c>
       <c r="L15">
-        <v>0.36959675079779519</v>
+        <v>0.37311279930762575</v>
       </c>
       <c r="M15">
-        <v>0.30129725205746966</v>
+        <v>0.30411225340372328</v>
       </c>
       <c r="N15">
-        <v>0.41550882463387157</v>
+        <v>0.41709577754891863</v>
       </c>
       <c r="O15">
-        <v>0.36363636363636365</v>
+        <v>0.44301075268817203</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1118,46 +1117,46 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0.90315957568153304</v>
+        <v>0.90337266208885014</v>
       </c>
       <c r="C16">
-        <v>0.80519480519480524</v>
+        <v>0.82412060301507539</v>
       </c>
       <c r="D16">
-        <v>0.90277549679750368</v>
+        <v>0.90300647169656756</v>
       </c>
       <c r="E16">
-        <v>0.79086181277860323</v>
+        <v>0.79123663556022494</v>
       </c>
       <c r="F16">
-        <v>0.72109782937038791</v>
+        <v>0.721794154362705</v>
       </c>
       <c r="G16">
-        <v>0.56560559006211175</v>
+        <v>0.5704414587332054</v>
       </c>
       <c r="H16">
-        <v>0.57201458523245219</v>
+        <v>0.5748245415440344</v>
       </c>
       <c r="I16">
-        <v>0.4482051282051282</v>
+        <v>0.46414342629482069</v>
       </c>
       <c r="J16">
-        <v>0.41958041958041958</v>
+        <v>0.43057824240444298</v>
       </c>
       <c r="K16">
-        <v>0.60137986469287963</v>
+        <v>0.60292253286181352</v>
       </c>
       <c r="L16">
-        <v>0.36920994101150761</v>
+        <v>0.37272814693720552</v>
       </c>
       <c r="M16">
-        <v>0.2965546101269354</v>
+        <v>0.29938871908863574</v>
       </c>
       <c r="N16">
-        <v>0.37072850168982352</v>
+        <v>0.37243703773054959</v>
       </c>
       <c r="O16">
-        <v>0.30466830466830469</v>
+        <v>0.39139784946236561</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1165,46 +1164,46 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.90262727652940955</v>
+        <v>0.90284153420084223</v>
       </c>
       <c r="C17">
-        <v>0.89795918367346939</v>
+        <v>0.90787269681742044</v>
       </c>
       <c r="D17">
-        <v>0.90967318114632945</v>
+        <v>0.90988776931268944</v>
       </c>
       <c r="E17">
-        <v>0.76584943041109466</v>
+        <v>0.76626908102095048</v>
       </c>
       <c r="F17">
-        <v>0.7710697794847452</v>
+        <v>0.77164134131117901</v>
       </c>
       <c r="G17">
-        <v>0.63043478260869568</v>
+        <v>0.63454894433781195</v>
       </c>
       <c r="H17">
-        <v>0.55492251595259801</v>
+        <v>0.55784469096671951</v>
       </c>
       <c r="I17">
-        <v>0.58871794871794869</v>
+        <v>0.60059760956175301</v>
       </c>
       <c r="J17">
-        <v>0.48418248418248416</v>
+        <v>0.49395622345638679</v>
       </c>
       <c r="K17">
-        <v>0.65067988478799654</v>
+        <v>0.6520317608594115</v>
       </c>
       <c r="L17">
-        <v>0.3568320278503046</v>
+        <v>0.36041927108375804</v>
       </c>
       <c r="M17">
-        <v>0.3138513042265309</v>
+        <v>0.31661572659071963</v>
       </c>
       <c r="N17">
-        <v>0.41503942921517084</v>
+        <v>0.41662765658646195</v>
       </c>
       <c r="O17">
-        <v>0.35872235872235875</v>
+        <v>0.43870967741935485</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1212,46 +1211,46 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.88589787460552827</v>
+        <v>0.88614894343487993</v>
       </c>
       <c r="C18">
-        <v>0.80148423005565861</v>
+        <v>0.82077051926298161</v>
       </c>
       <c r="D18">
-        <v>0.95212678600755463</v>
+        <v>0.95224051773572538</v>
       </c>
       <c r="E18">
-        <v>0.80726844972758793</v>
+        <v>0.80761386811692726</v>
       </c>
       <c r="F18">
-        <v>0.75501661416303456</v>
+        <v>0.75562825534845679</v>
       </c>
       <c r="G18">
-        <v>0.6071428571428571</v>
+        <v>0.6115163147792706</v>
       </c>
       <c r="H18">
-        <v>0.53327256153144942</v>
+        <v>0.53633688023545389</v>
       </c>
       <c r="I18">
-        <v>0.51179487179487182</v>
+        <v>0.52589641434262946</v>
       </c>
       <c r="J18">
-        <v>0.47485847485847488</v>
+        <v>0.48480888598497224</v>
       </c>
       <c r="K18">
-        <v>0.57043338468752092</v>
+        <v>0.57209581637419094</v>
       </c>
       <c r="L18">
-        <v>0.39860748476936464</v>
+        <v>0.40196172708914318</v>
       </c>
       <c r="M18">
-        <v>0.31873343562561024</v>
+        <v>0.32147818838566267</v>
       </c>
       <c r="N18">
-        <v>0.39879834772812617</v>
+        <v>0.40043067128546017</v>
       </c>
       <c r="O18">
-        <v>0.29975429975429974</v>
+        <v>0.38709677419354838</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1259,46 +1258,46 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.88853720821494087</v>
+        <v>0.88874129388956702</v>
       </c>
       <c r="C19">
-        <v>0.91050583657587547</v>
+        <v>0.91858407079646021</v>
       </c>
       <c r="D19">
-        <v>0.92155036248025601</v>
+        <v>0.92171206854740928</v>
       </c>
       <c r="E19">
-        <v>0.74490037950664134</v>
+        <v>0.74528553243139228</v>
       </c>
       <c r="F19">
-        <v>0.77488025545502925</v>
+        <v>0.7753882915173238</v>
       </c>
       <c r="G19">
-        <v>0.63690354290395246</v>
+        <v>0.64065666801783538</v>
       </c>
       <c r="H19">
-        <v>0.54732690622261171</v>
+        <v>0.54984203072230087</v>
       </c>
       <c r="I19">
-        <v>0.50226244343891402</v>
+        <v>0.51348960636886332</v>
       </c>
       <c r="J19" s="6">
-        <v>0.38593272171253823</v>
+        <v>0.39536284251731407</v>
       </c>
       <c r="K19">
-        <v>0.59098239050506352</v>
+        <v>0.59232351806609229</v>
       </c>
       <c r="L19">
-        <v>0.37468449097877909</v>
+        <v>0.37765165612206925</v>
       </c>
       <c r="M19">
-        <v>0.31222631542364637</v>
+        <v>0.31465576949716029</v>
       </c>
       <c r="N19">
-        <v>0.36775489234505626</v>
+        <v>0.36925729195787904</v>
       </c>
       <c r="O19">
-        <v>0.35265700483091789</v>
+        <v>0.42365591397849461</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1306,46 +1305,46 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>0.85854044527568962</v>
+        <v>0.85879945429740789</v>
       </c>
       <c r="C20">
-        <v>0.88326848249027234</v>
+        <v>0.89380530973451322</v>
       </c>
       <c r="D20">
-        <v>0.89190393260702283</v>
+        <v>0.89212674803977043</v>
       </c>
       <c r="E20">
-        <v>0.72041034155597727</v>
+        <v>0.72083246987773464</v>
       </c>
       <c r="F20">
-        <v>0.77310626219620371</v>
+        <v>0.77361830169476531</v>
       </c>
       <c r="G20">
-        <v>0.58652467745238579</v>
+        <v>0.59079854073773819</v>
       </c>
       <c r="H20">
-        <v>0.5214723926380368</v>
+        <v>0.52413116897265499</v>
       </c>
       <c r="I20">
-        <v>0.52850678733031675</v>
+        <v>0.53914197257850505</v>
       </c>
       <c r="J20" s="6">
-        <v>0.42079510703363915</v>
+        <v>0.42968985245408009</v>
       </c>
       <c r="K20">
-        <v>0.59498161646133008</v>
+        <v>0.5963096309630963</v>
       </c>
       <c r="L20">
-        <v>0.32962512854071235</v>
+        <v>0.33280610346110906</v>
       </c>
       <c r="M20">
-        <v>0.26649058177521373</v>
+        <v>0.2690815902479568</v>
       </c>
       <c r="N20">
-        <v>0.35196861426369624</v>
+        <v>0.35350852669835059</v>
       </c>
       <c r="O20">
-        <v>0.3140096618357488</v>
+        <v>0.38924731182795697</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1353,46 +1352,46 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>0.78703737006797825</v>
+        <v>0.78742729949019885</v>
       </c>
       <c r="C21">
-        <v>0.96108949416342415</v>
+        <v>0.96460176991150437</v>
       </c>
       <c r="D21">
-        <v>0.94706573245312053</v>
+        <v>0.94717484439414756</v>
       </c>
       <c r="E21">
-        <v>0.76138519924098669</v>
+        <v>0.76174546315758307</v>
       </c>
       <c r="F21">
-        <v>0.76911477736384604</v>
+        <v>0.76963582459400859</v>
       </c>
       <c r="G21">
-        <v>0.63731312717591648</v>
+        <v>0.64106201864612888</v>
       </c>
       <c r="H21">
-        <v>0.52410166520595969</v>
+        <v>0.52674583287939858</v>
       </c>
       <c r="I21">
-        <v>0.54932126696832584</v>
+        <v>0.55948695267580717</v>
       </c>
       <c r="J21" s="6">
-        <v>0.41284403669724773</v>
+        <v>0.4218608852755194</v>
       </c>
       <c r="K21">
-        <v>0.59317551441656458</v>
+        <v>0.59450945094509455</v>
       </c>
       <c r="L21">
-        <v>0.33934748060203795</v>
+        <v>0.34248232229251951</v>
       </c>
       <c r="M21">
-        <v>0.30180023632445957</v>
+        <v>0.30426651890843609</v>
       </c>
       <c r="N21">
-        <v>0.37485404698519453</v>
+        <v>0.37633957692666109</v>
       </c>
       <c r="O21">
-        <v>0.33333333333333331</v>
+        <v>0.40645161290322579</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1400,46 +1399,46 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>0.89105492213070536</v>
+        <v>0.89125439793207439</v>
       </c>
       <c r="C22">
-        <v>0.70817120622568097</v>
+        <v>0.73451327433628322</v>
       </c>
       <c r="D22">
-        <v>0.93353853630877648</v>
+        <v>0.93367553148492444</v>
       </c>
       <c r="E22">
-        <v>0.73327798861480076</v>
+        <v>0.73368068918558871</v>
       </c>
       <c r="F22">
-        <v>0.77904913961326949</v>
+        <v>0.77954776760033628</v>
       </c>
       <c r="G22">
-        <v>0.64058980135162813</v>
+        <v>0.64430482367247666</v>
       </c>
       <c r="H22">
-        <v>0.51971954425942157</v>
+        <v>0.52238805970149249</v>
       </c>
       <c r="I22">
-        <v>0.6</v>
+        <v>0.60902255639097747</v>
       </c>
       <c r="J22" s="6">
-        <v>0.36024464831804281</v>
+        <v>0.37006925624811804</v>
       </c>
       <c r="K22">
-        <v>0.51809327226988322</v>
+        <v>0.51967339591101969</v>
       </c>
       <c r="L22">
-        <v>0.34570440310367395</v>
+        <v>0.34880908075921102</v>
       </c>
       <c r="M22">
-        <v>0.28206019322999931</v>
+        <v>0.28459620446045159</v>
       </c>
       <c r="N22">
-        <v>0.38045864275372471</v>
+        <v>0.38193085453359427</v>
       </c>
       <c r="O22">
-        <v>0.40579710144927539</v>
+        <v>0.47096774193548385</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1447,108 +1446,52 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.82703305398697979</v>
+        <v>0.82734975227974439</v>
       </c>
       <c r="C23">
-        <v>0.79377431906614782</v>
+        <v>0.81238938053097343</v>
       </c>
       <c r="D23">
-        <v>0.90786116398687777</v>
+        <v>0.90805108722011152</v>
       </c>
       <c r="E23">
-        <v>0.76867884250474383</v>
+        <v>0.769028094378164</v>
       </c>
       <c r="F23">
-        <v>0.74747205960617347</v>
+        <v>0.74804194875879459</v>
       </c>
       <c r="G23">
-        <v>0.60167929551505217</v>
+        <v>0.60579651398459666</v>
       </c>
       <c r="H23">
-        <v>0.54907975460122704</v>
+        <v>0.55158513999346337</v>
       </c>
       <c r="I23">
-        <v>0.63981900452488683</v>
+        <v>0.64794338788146832</v>
       </c>
       <c r="J23" s="6">
-        <v>0.38165137614678901</v>
+        <v>0.39114724480578139</v>
       </c>
       <c r="K23">
-        <v>0.57317938463523188</v>
+        <v>0.5745788864600746</v>
       </c>
       <c r="L23">
-        <v>0.33616901935121996</v>
+        <v>0.33931894305917382</v>
       </c>
       <c r="M23">
-        <v>0.30902898449989574</v>
+        <v>0.31146973264995154</v>
       </c>
       <c r="N23">
-        <v>0.35075428518051471</v>
+        <v>0.35229708321684838</v>
       </c>
       <c r="O23">
-        <v>0.26570048309178745</v>
+        <v>0.34623655913978496</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24">
-        <f xml:space="preserve"> MEDIAN(B4:B23)</f>
-        <v>0.86474976737360687</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:O24" si="0" xml:space="preserve"> MEDIAN(C4:C23)</f>
-        <v>0.85869565217391308</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.90363770734110693</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0.76070895220811607</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0.7544896692135501</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0.63895146426377236</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0.53176459396768605</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>0.54389140271493219</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>0.42018776330702934</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>0.5781869768058957</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>0.3466821050302562</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>0.30506502896430876</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>0.37338695967412538</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="0"/>
-        <v>0.31900562124442722</v>
-      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
@@ -1602,46 +1545,46 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>0.54968802313194343</v>
+        <v>0.55124170616113743</v>
       </c>
       <c r="C28">
-        <v>0.50384615384615383</v>
+        <v>0.57774140752864156</v>
       </c>
       <c r="D28">
-        <v>0.49142072752230609</v>
+        <v>0.49328238133547869</v>
       </c>
       <c r="E28">
-        <v>0.44429377138102139</v>
+        <v>0.44584793164914871</v>
       </c>
       <c r="F28">
-        <v>0.53012468393059553</v>
+        <v>0.53198141473793914</v>
       </c>
       <c r="G28">
-        <v>0.56435422708008032</v>
+        <v>0.57302142544818535</v>
       </c>
       <c r="H28">
-        <v>0.49210444834348233</v>
+        <v>0.49683026584867074</v>
       </c>
       <c r="I28">
-        <v>0.50023685457129319</v>
+        <v>0.52089009990917345</v>
       </c>
       <c r="J28">
-        <v>0.17509084902543773</v>
+        <v>0.19916613213598461</v>
       </c>
       <c r="K28">
-        <v>0.19526627218934911</v>
+        <v>0.20005228416443369</v>
       </c>
       <c r="L28">
-        <v>0.27004138196516214</v>
+        <v>0.27637855371112385</v>
       </c>
       <c r="M28">
-        <v>0.4126090627638615</v>
+        <v>0.4163462210725023</v>
       </c>
       <c r="N28">
-        <v>0.20705294335431321</v>
+        <v>0.21037835844969816</v>
       </c>
       <c r="O28">
-        <v>7.8602620087336247E-2</v>
+        <v>0.23132969034608378</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1649,46 +1592,46 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>0.55577537665499921</v>
+        <v>0.55730805687203788</v>
       </c>
       <c r="C29">
-        <v>0.45769230769230768</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="D29">
-        <v>0.49683071581412247</v>
+        <v>0.49867256637168139</v>
       </c>
       <c r="E29">
-        <v>0.44078034949301936</v>
+        <v>0.44234433585346367</v>
       </c>
       <c r="F29">
-        <v>0.53265323916644869</v>
+        <v>0.53449997828824525</v>
       </c>
       <c r="G29">
-        <v>0.51751059558331469</v>
+        <v>0.52710975076519462</v>
       </c>
       <c r="H29">
-        <v>0.49231086799463308</v>
+        <v>0.49703476482617587</v>
       </c>
       <c r="I29">
-        <v>0.4007579346281383</v>
+        <v>0.42552225249772935</v>
       </c>
       <c r="J29">
-        <v>0.17773372976544433</v>
+        <v>0.20173187940987813</v>
       </c>
       <c r="K29">
-        <v>0.19881656804733727</v>
+        <v>0.20358146526370827</v>
       </c>
       <c r="L29">
-        <v>0.25310364738716196</v>
+        <v>0.2595878649112765</v>
       </c>
       <c r="M29">
-        <v>0.44962003940332113</v>
+        <v>0.45312172271551421</v>
       </c>
       <c r="N29">
-        <v>0.20973713439466865</v>
+        <v>0.21305129268629891</v>
       </c>
       <c r="O29">
-        <v>6.9868995633187769E-2</v>
+        <v>0.22404371584699453</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -1696,46 +1639,46 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>0.3980368284888145</v>
+        <v>0.40011374407582939</v>
       </c>
       <c r="C30">
-        <v>0.31153846153846154</v>
+        <v>0.41407528641571195</v>
       </c>
       <c r="D30">
-        <v>0.39145706326456459</v>
+        <v>0.39368463395012065</v>
       </c>
       <c r="E30">
-        <v>0.32378956452060281</v>
+        <v>0.3256807425164423</v>
       </c>
       <c r="F30">
-        <v>0.51460458627604844</v>
+        <v>0.51652264536019799</v>
       </c>
       <c r="G30">
-        <v>0.50992638857907646</v>
+        <v>0.51967643200699609</v>
       </c>
       <c r="H30">
-        <v>0.38889462276808751</v>
+        <v>0.3945807770961145</v>
       </c>
       <c r="I30">
-        <v>0.25864519185220275</v>
+        <v>0.28928247048138056</v>
       </c>
       <c r="J30">
-        <v>0.1275189957053188</v>
+        <v>0.15298268120590122</v>
       </c>
       <c r="K30">
-        <v>0.14122287968441816</v>
+        <v>0.14633030520880988</v>
       </c>
       <c r="L30">
-        <v>0.13184486574920604</v>
+        <v>0.13938179736691472</v>
       </c>
       <c r="M30">
-        <v>0.22783563186039965</v>
+        <v>0.23274837446689506</v>
       </c>
       <c r="N30">
-        <v>0.21094039244724178</v>
+        <v>0.21424950458546477</v>
       </c>
       <c r="O30">
-        <v>3.0567685589519649E-2</v>
+        <v>0.19125683060109289</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -1743,46 +1686,46 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>0.57358088570993759</v>
+        <v>0.57505213270142175</v>
       </c>
       <c r="C31">
-        <v>0.45384615384615384</v>
+        <v>0.53518821603927991</v>
       </c>
       <c r="D31">
-        <v>0.51911663773264971</v>
+        <v>0.52087691069991959</v>
       </c>
       <c r="E31">
-        <v>0.43591087003420964</v>
+        <v>0.43748847501382998</v>
       </c>
       <c r="F31">
-        <v>0.52358531694132004</v>
+        <v>0.52546788831473357</v>
       </c>
       <c r="G31">
-        <v>0.56078518848985059</v>
+        <v>0.56952339309138611</v>
       </c>
       <c r="H31">
-        <v>0.47476519764681596</v>
+        <v>0.47965235173824133</v>
       </c>
       <c r="I31">
-        <v>0.46328754144954998</v>
+        <v>0.4854677565849228</v>
       </c>
       <c r="J31">
-        <v>0.16121572514040303</v>
+        <v>0.18569595894804361</v>
       </c>
       <c r="K31">
-        <v>0.16844181459566074</v>
+        <v>0.17338736030324817</v>
       </c>
       <c r="L31">
-        <v>0.27196612453084401</v>
+        <v>0.27828658652928828</v>
       </c>
       <c r="M31">
-        <v>0.44497607655502391</v>
+        <v>0.44850730615954693</v>
       </c>
       <c r="N31">
-        <v>0.20844131803035912</v>
+        <v>0.21176091064104335</v>
       </c>
       <c r="O31">
-        <v>3.4934497816593885E-2</v>
+        <v>0.19489981785063754</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -1790,46 +1733,46 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>0.55417744635519706</v>
+        <v>0.55571563981042649</v>
       </c>
       <c r="C32">
-        <v>0.45384615384615384</v>
+        <v>0.53518821603927991</v>
       </c>
       <c r="D32">
-        <v>0.50159473535467725</v>
+        <v>0.50341914722445691</v>
       </c>
       <c r="E32">
-        <v>0.42204209942367554</v>
+        <v>0.42365849160981006</v>
       </c>
       <c r="F32">
-        <v>0.52803208649402733</v>
+        <v>0.52989708628251331</v>
       </c>
       <c r="G32">
-        <v>0.53714030782957845</v>
+        <v>0.54634892872759078</v>
       </c>
       <c r="H32">
-        <v>0.44318299102074515</v>
+        <v>0.44836400817995908</v>
       </c>
       <c r="I32">
-        <v>0.38844149692089058</v>
+        <v>0.41371480472297911</v>
       </c>
       <c r="J32">
-        <v>0.1797158903204493</v>
+        <v>0.20365618986529826</v>
       </c>
       <c r="K32">
-        <v>0.18343195266272189</v>
+        <v>0.18828834716685183</v>
       </c>
       <c r="L32">
-        <v>0.25233375036088923</v>
+        <v>0.25882465178401071</v>
       </c>
       <c r="M32">
-        <v>0.41077962285392627</v>
+        <v>0.4145284206110606</v>
       </c>
       <c r="N32">
-        <v>0.2086264346538319</v>
+        <v>0.21194525093322272</v>
       </c>
       <c r="O32">
-        <v>7.8602620087336247E-2</v>
+        <v>0.23132969034608378</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -1837,46 +1780,46 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>0.49863729699458653</v>
+        <v>0.50059501673484563</v>
       </c>
       <c r="C33">
-        <v>0.42023346303501946</v>
+        <v>0.51857835218093695</v>
       </c>
       <c r="D33">
-        <v>0.47641490593920999</v>
+        <v>0.47860154323442844</v>
       </c>
       <c r="E33">
-        <v>0.40619589977220955</v>
+        <v>0.40808356039963667</v>
       </c>
       <c r="F33">
-        <v>0.50982254652217085</v>
+        <v>0.51203472878879053</v>
       </c>
       <c r="G33">
-        <v>0.50222222222222224</v>
+        <v>0.51357220412595006</v>
       </c>
       <c r="H33">
-        <v>0.45474160073975134</v>
+        <v>0.46056108965236836</v>
       </c>
       <c r="I33">
-        <v>0.363317244405441</v>
+        <v>0.39135906040268459</v>
       </c>
       <c r="J33">
-        <v>0.17337883959044367</v>
+        <v>0.20197693574958814</v>
       </c>
       <c r="K33">
-        <v>0.16024653312788906</v>
+        <v>0.16586952362731969</v>
       </c>
       <c r="L33">
-        <v>0.23209064327485379</v>
+        <v>0.23938817992578515</v>
       </c>
       <c r="M33">
-        <v>0.40720795360397682</v>
+        <v>0.41147439851943246</v>
       </c>
       <c r="N33">
-        <v>0.19621770398650448</v>
+        <v>0.19994697538774248</v>
       </c>
       <c r="O33">
-        <v>3.248259860788863E-2</v>
+        <v>0.22201492537313433</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -1884,46 +1827,46 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>0.48303154750793353</v>
+        <v>0.48505020453700259</v>
       </c>
       <c r="C34">
-        <v>0.38910505836575876</v>
+        <v>0.49273021001615508</v>
       </c>
       <c r="D34">
-        <v>0.49646523145744298</v>
+        <v>0.49856813300453423</v>
       </c>
       <c r="E34">
-        <v>0.41670463173880029</v>
+        <v>0.41855888586133816</v>
       </c>
       <c r="F34">
-        <v>0.56215189326885717</v>
+        <v>0.56412791197455514</v>
       </c>
       <c r="G34">
-        <v>0.47822222222222222</v>
+        <v>0.49011943539630837</v>
       </c>
       <c r="H34">
-        <v>0.50549676358779405</v>
+        <v>0.51077454767229113</v>
       </c>
       <c r="I34">
-        <v>0.35629662132514262</v>
+        <v>0.38464765100671139</v>
       </c>
       <c r="J34">
-        <v>0.17201365187713311</v>
+        <v>0.20065897858319603</v>
       </c>
       <c r="K34">
-        <v>0.18772470467385721</v>
+        <v>0.19316370129456029</v>
       </c>
       <c r="L34">
-        <v>0.23739035087719298</v>
+        <v>0.24463752375780615</v>
       </c>
       <c r="M34">
-        <v>0.3895332780999724</v>
+        <v>0.39392693124957162</v>
       </c>
       <c r="N34">
-        <v>0.18769422001243008</v>
+        <v>0.19146303742653881</v>
       </c>
       <c r="O34">
-        <v>6.4965197215777259E-2</v>
+        <v>0.24813432835820895</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1931,46 +1874,46 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <v>0.57039387717005785</v>
+        <v>0.57207140200818152</v>
       </c>
       <c r="C35">
-        <v>0.44747081712062259</v>
+        <v>0.54119547657512113</v>
       </c>
       <c r="D35">
-        <v>0.49838239405679596</v>
+        <v>0.50047728899848853</v>
       </c>
       <c r="E35">
-        <v>0.42909643128321945</v>
+        <v>0.4309112927641538</v>
       </c>
       <c r="F35">
-        <v>0.50464142308190496</v>
+        <v>0.5068769878793089</v>
       </c>
       <c r="G35">
-        <v>0.53022222222222226</v>
+        <v>0.54093376764386536</v>
       </c>
       <c r="H35">
-        <v>0.45987876297133462</v>
+        <v>0.46564342346005283</v>
       </c>
       <c r="I35">
-        <v>0.38525669153137343</v>
+        <v>0.41233221476510068</v>
       </c>
       <c r="J35">
-        <v>0.17406143344709898</v>
+        <v>0.20263591433278419</v>
       </c>
       <c r="K35">
-        <v>0.19530046224961478</v>
+        <v>0.20068873158599579</v>
       </c>
       <c r="L35">
-        <v>0.25950292397660818</v>
+        <v>0.26653995836727307</v>
       </c>
       <c r="M35">
-        <v>0.42294946147473073</v>
+        <v>0.42710261155665225</v>
       </c>
       <c r="N35">
-        <v>0.1920447482908639</v>
+        <v>0.19579338076090319</v>
       </c>
       <c r="O35">
-        <v>6.0324825986078884E-2</v>
+        <v>0.24440298507462688</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -1978,46 +1921,46 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>0.52282994213179013</v>
+        <v>0.52469319449609519</v>
       </c>
       <c r="C36">
-        <v>0.35019455252918286</v>
+        <v>0.4604200323101777</v>
       </c>
       <c r="D36">
-        <v>0.4823261572872149</v>
+        <v>0.48448810754912097</v>
       </c>
       <c r="E36">
-        <v>0.40048595292331057</v>
+        <v>0.40239176506206481</v>
       </c>
       <c r="F36">
-        <v>0.52614308535900867</v>
+        <v>0.5282816126536577</v>
       </c>
       <c r="G36">
-        <v>0.45911111111111114</v>
+        <v>0.47144408251900111</v>
       </c>
       <c r="H36">
-        <v>0.50611322305558415</v>
+        <v>0.51138442772921322</v>
       </c>
       <c r="I36">
-        <v>0.36682755594559019</v>
+        <v>0.39471476510067116</v>
       </c>
       <c r="J36">
-        <v>0.17201365187713311</v>
+        <v>0.20065897858319603</v>
       </c>
       <c r="K36">
-        <v>0.15215716486902928</v>
+        <v>0.15783432179070211</v>
       </c>
       <c r="L36">
-        <v>0.21418128654970761</v>
+        <v>0.22164901801067971</v>
       </c>
       <c r="M36">
-        <v>0.3771057718862193</v>
+        <v>0.38158886832545069</v>
       </c>
       <c r="N36">
-        <v>0.18085767557489124</v>
+        <v>0.18465821218682338</v>
       </c>
       <c r="O36">
-        <v>3.7122969837587005E-2</v>
+        <v>0.22574626865671643</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2025,46 +1968,46 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>0.54142243793167821</v>
+        <v>0.54321309036816656</v>
       </c>
       <c r="C37">
-        <v>0.48638132295719844</v>
+        <v>0.57350565428109856</v>
       </c>
       <c r="D37">
-        <v>0.47457762511483004</v>
+        <v>0.47677193540688889</v>
       </c>
       <c r="E37">
-        <v>0.41196659073652242</v>
+        <v>0.41383590675143811</v>
       </c>
       <c r="F37">
-        <v>0.48676654721298734</v>
+        <v>0.48908278174159719</v>
       </c>
       <c r="G37">
-        <v>0.52800000000000002</v>
+        <v>0.53876221498371335</v>
       </c>
       <c r="H37">
-        <v>0.53385389910613379</v>
+        <v>0.5388290302907095</v>
       </c>
       <c r="I37">
-        <v>0.42035980693286529</v>
+        <v>0.44588926174496646</v>
       </c>
       <c r="J37">
-        <v>0.178839590443686</v>
+        <v>0.20724876441515649</v>
       </c>
       <c r="K37">
-        <v>0.16268618387262454</v>
+        <v>0.16829283846693452</v>
       </c>
       <c r="L37">
-        <v>0.27430555555555558</v>
+        <v>0.28120191872567651</v>
       </c>
       <c r="M37">
-        <v>0.41673570836785417</v>
+        <v>0.42093358009459181</v>
       </c>
       <c r="N37">
-        <v>0.2103347243185652</v>
+        <v>0.21399849763598602</v>
       </c>
       <c r="O37">
-        <v>8.3526682134570762E-2</v>
+        <v>0.26305970149253732</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2072,46 +2015,46 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>0.60841423948220064</v>
+        <v>0.60981069084563144</v>
       </c>
       <c r="C38">
-        <v>0.47316103379721669</v>
+        <v>0.55611390284757123</v>
       </c>
       <c r="D38">
-        <v>0.49300986842105265</v>
+        <v>0.49496190710248217</v>
       </c>
       <c r="E38">
-        <v>0.42258584356018347</v>
+        <v>0.42426302453494841</v>
       </c>
       <c r="F38">
-        <v>0.45839996542334788</v>
+        <v>0.46059145107830057</v>
       </c>
       <c r="G38">
-        <v>0.39053948397185301</v>
+        <v>0.40153550863723608</v>
       </c>
       <c r="H38">
-        <v>0.54004576659038905</v>
+        <v>0.54494000452796021</v>
       </c>
       <c r="I38">
-        <v>0.38871473354231972</v>
+        <v>0.41733067729083667</v>
       </c>
       <c r="J38">
-        <v>0.13818672059319179</v>
+        <v>0.16465207448546226</v>
       </c>
       <c r="K38">
-        <v>0.19472235278318673</v>
+        <v>0.19977313671848937</v>
       </c>
       <c r="L38">
-        <v>0.23114992721979621</v>
+        <v>0.23809981729012406</v>
       </c>
       <c r="M38">
-        <v>0.35561459935673334</v>
+        <v>0.35982217282578494</v>
       </c>
       <c r="N38">
-        <v>0.25023509497837126</v>
+        <v>0.25353431326654807</v>
       </c>
       <c r="O38">
-        <v>0.1078167115902965</v>
+        <v>0.28817204301075267</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2119,46 +2062,46 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>0.45368360936607655</v>
+        <v>0.45563185249819793</v>
       </c>
       <c r="C39">
-        <v>0.42942345924453279</v>
+        <v>0.51926298157453932</v>
       </c>
       <c r="D39">
-        <v>0.50838815789473679</v>
+        <v>0.51028098631932495</v>
       </c>
       <c r="E39">
-        <v>0.43194496095202678</v>
+        <v>0.43359495704839007</v>
       </c>
       <c r="F39">
-        <v>0.50637507023382466</v>
+        <v>0.50837243338642335</v>
       </c>
       <c r="G39">
-        <v>0.51876465989053944</v>
+        <v>0.52744721689059504</v>
       </c>
       <c r="H39">
-        <v>0.51624713958810065</v>
+        <v>0.52139461172741675</v>
       </c>
       <c r="I39">
-        <v>0.37095088819226751</v>
+        <v>0.40039840637450197</v>
       </c>
       <c r="J39">
-        <v>0.13549039433771487</v>
+        <v>0.16203854949362953</v>
       </c>
       <c r="K39">
-        <v>0.17592157389377561</v>
+        <v>0.18109027824114232</v>
       </c>
       <c r="L39">
-        <v>0.24434740417273168</v>
+        <v>0.25117799788441197</v>
       </c>
       <c r="M39">
-        <v>0.42036078870088101</v>
+        <v>0.42414559599888857</v>
       </c>
       <c r="N39">
-        <v>0.25023509497837126</v>
+        <v>0.25353431326654807</v>
       </c>
       <c r="O39">
-        <v>0.16172506738544473</v>
+        <v>0.33118279569892473</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2166,46 +2109,46 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <v>0.55686274509803924</v>
+        <v>0.55844303653401117</v>
       </c>
       <c r="C40">
-        <v>0.42544731610337971</v>
+        <v>0.51591289782244554</v>
       </c>
       <c r="D40">
-        <v>0.51274671052631582</v>
+        <v>0.514622757434259</v>
       </c>
       <c r="E40">
-        <v>0.44427916201809842</v>
+        <v>0.44589333168530992</v>
       </c>
       <c r="F40">
-        <v>0.47655270778406883</v>
+        <v>0.47867074168137402</v>
       </c>
       <c r="G40">
-        <v>0.5332290852228303</v>
+        <v>0.54165067178502879</v>
       </c>
       <c r="H40">
-        <v>0.53638443935926772</v>
+        <v>0.54131763640479968</v>
       </c>
       <c r="I40">
-        <v>0.41379310344827586</v>
+        <v>0.44123505976095617</v>
       </c>
       <c r="J40">
-        <v>0.16852039096730703</v>
+        <v>0.19405423064358052</v>
       </c>
       <c r="K40">
-        <v>0.18491908950513664</v>
+        <v>0.19003136051244413</v>
       </c>
       <c r="L40">
-        <v>0.25638039786511402</v>
+        <v>0.26310222136743916</v>
       </c>
       <c r="M40">
-        <v>0.4294504265137743</v>
+        <v>0.4331758821894971</v>
       </c>
       <c r="N40">
-        <v>0.2313334587173218</v>
+        <v>0.23471585057578878</v>
       </c>
       <c r="O40">
-        <v>0.15094339622641509</v>
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2213,46 +2156,46 @@
         <v>14</v>
       </c>
       <c r="B41">
-        <v>0.58511326860841428</v>
+        <v>0.58659281459842938</v>
       </c>
       <c r="C41">
-        <v>0.5248508946322068</v>
+        <v>0.59966499162479059</v>
       </c>
       <c r="D41">
-        <v>0.49564144736842103</v>
+        <v>0.49758335381338575</v>
       </c>
       <c r="E41">
-        <v>0.43250278914094459</v>
+        <v>0.43415116494654227</v>
       </c>
       <c r="F41">
-        <v>0.513636167178113</v>
+        <v>0.51560414962765266</v>
       </c>
       <c r="G41">
-        <v>0.5218921032056294</v>
+        <v>0.53051823416506716</v>
       </c>
       <c r="H41">
-        <v>0.52219679633867278</v>
+        <v>0.52728095992755264</v>
       </c>
       <c r="I41">
-        <v>0.41483803552769072</v>
+        <v>0.44223107569721115</v>
       </c>
       <c r="J41">
-        <v>0.21638018200202225</v>
+        <v>0.24044429924861158</v>
       </c>
       <c r="K41">
-        <v>0.20183979050560666</v>
+        <v>0.20684593314205646</v>
       </c>
       <c r="L41">
-        <v>0.23658418243571083</v>
+        <v>0.24348495047600729</v>
       </c>
       <c r="M41">
-        <v>0.4260942525520906</v>
+        <v>0.42984162267296472</v>
       </c>
       <c r="N41">
-        <v>0.24148956178296033</v>
+        <v>0.24482726336485347</v>
       </c>
       <c r="O41">
-        <v>0.16172506738544473</v>
+        <v>0.33118279569892473</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2260,46 +2203,46 @@
         <v>15</v>
       </c>
       <c r="B42">
-        <v>0.5254140491147915</v>
+        <v>0.52710649114154562</v>
       </c>
       <c r="C42">
-        <v>0.44135188866799202</v>
+        <v>0.52931323283082077</v>
       </c>
       <c r="D42">
-        <v>0.52409539473684208</v>
+        <v>0.5259277463750307</v>
       </c>
       <c r="E42">
-        <v>0.44285360109086402</v>
+        <v>0.44447191150114329</v>
       </c>
       <c r="F42">
-        <v>0.49029692700004324</v>
+        <v>0.49235934742370108</v>
       </c>
       <c r="G42">
-        <v>0.45817044566067239</v>
+        <v>0.46794625719769672</v>
       </c>
       <c r="H42">
-        <v>0.54736842105263162</v>
+        <v>0.55218474077428115</v>
       </c>
       <c r="I42">
-        <v>0.52664576802507834</v>
+        <v>0.54880478087649398</v>
       </c>
       <c r="J42">
-        <v>0.16582406471183014</v>
+        <v>0.19144070565174778</v>
       </c>
       <c r="K42">
-        <v>0.19418518767206069</v>
+        <v>0.19923934076199373</v>
       </c>
       <c r="L42">
-        <v>0.27287724405628333</v>
+        <v>0.27944994711029908</v>
       </c>
       <c r="M42">
-        <v>0.45797790518808557</v>
+        <v>0.46151708808002223</v>
       </c>
       <c r="N42">
-        <v>0.23838630806845965</v>
+        <v>0.24173766501263927</v>
       </c>
       <c r="O42">
-        <v>0.19407008086253369</v>
+        <v>0.35698924731182796</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2307,46 +2250,46 @@
         <v>16</v>
       </c>
       <c r="B43">
-        <v>0.56290316768171822</v>
+        <v>0.56455087240611757</v>
       </c>
       <c r="C43">
-        <v>0.43478260869565216</v>
+        <v>0.53982300884955747</v>
       </c>
       <c r="D43">
-        <v>0.50777286195559523</v>
+        <v>0.50986177350254624</v>
       </c>
       <c r="E43">
-        <v>0.41901763972204076</v>
+        <v>0.42082358862014863</v>
       </c>
       <c r="F43">
-        <v>0.49186449719925313</v>
+        <v>0.49422540820390282</v>
       </c>
       <c r="G43">
-        <v>0.50486643197349346</v>
+        <v>0.51540332387515198</v>
       </c>
       <c r="H43">
-        <v>0.53206964954815961</v>
+        <v>0.53742237716526853</v>
       </c>
       <c r="I43">
-        <v>0.36178107606679033</v>
+        <v>0.39141972578505085</v>
       </c>
       <c r="J43">
-        <v>0.14800995024875621</v>
+        <v>0.17494730502860584</v>
       </c>
       <c r="K43">
-        <v>0.18551362547737718</v>
+        <v>0.191011958338691</v>
       </c>
       <c r="L43">
-        <v>0.26890914215916567</v>
+        <v>0.27605135839225903</v>
       </c>
       <c r="M43">
-        <v>0.43256819926044793</v>
+        <v>0.4366948330793739</v>
       </c>
       <c r="N43">
-        <v>0.20555321440277191</v>
+        <v>0.20943994035970553</v>
       </c>
       <c r="O43">
-        <v>0.11666666666666667</v>
+        <v>0.31612903225806449</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2354,46 +2297,46 @@
         <v>17</v>
       </c>
       <c r="B44">
-        <v>0.47100796425096397</v>
+        <v>0.47300208228620666</v>
       </c>
       <c r="C44">
-        <v>0.45217391304347826</v>
+        <v>0.5539823008849557</v>
       </c>
       <c r="D44">
-        <v>0.48601696635142266</v>
+        <v>0.48819820548055937</v>
       </c>
       <c r="E44">
-        <v>0.39448832927481142</v>
+        <v>0.39637052606649104</v>
       </c>
       <c r="F44">
-        <v>0.47621587979016627</v>
+        <v>0.47864949776538784</v>
       </c>
       <c r="G44">
-        <v>0.49326982812176434</v>
+        <v>0.50405350628293477</v>
       </c>
       <c r="H44">
-        <v>0.45889354198809784</v>
+        <v>0.46508334241202748</v>
       </c>
       <c r="I44">
-        <v>0.41001855287569572</v>
+        <v>0.43741707209199471</v>
       </c>
       <c r="J44">
-        <v>0.18345771144278608</v>
+        <v>0.20927431496537188</v>
       </c>
       <c r="K44">
-        <v>0.19043303773707035</v>
+        <v>0.19589816124469589</v>
       </c>
       <c r="L44">
-        <v>0.20276237902846941</v>
+        <v>0.2105508001488649</v>
       </c>
       <c r="M44">
-        <v>0.36572943556826903</v>
+        <v>0.37034215265272197</v>
       </c>
       <c r="N44">
-        <v>0.20583415273680761</v>
+        <v>0.20971950424005217</v>
       </c>
       <c r="O44">
-        <v>0.1</v>
+        <v>0.3032258064516129</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2401,46 +2344,46 @@
         <v>18</v>
       </c>
       <c r="B45">
-        <v>0.46207070525063965</v>
+        <v>0.46409851367846627</v>
       </c>
       <c r="C45">
-        <v>0.43043478260869567</v>
+        <v>0.536283185840708</v>
       </c>
       <c r="D45">
-        <v>0.48731582579047772</v>
+        <v>0.48949155282515561</v>
       </c>
       <c r="E45">
-        <v>0.39359743422224863</v>
+        <v>0.39548240030788362</v>
       </c>
       <c r="F45">
-        <v>0.48839690584155776</v>
+        <v>0.49077392804991371</v>
       </c>
       <c r="G45">
-        <v>0.50569476082004561</v>
+        <v>0.51621402513173897</v>
       </c>
       <c r="H45">
-        <v>0.45360370288737051</v>
+        <v>0.45985401459854014</v>
       </c>
       <c r="I45">
-        <v>0.33024118738404451</v>
+        <v>0.36134453781512604</v>
       </c>
       <c r="J45">
-        <v>0.16728855721393035</v>
+        <v>0.19361638060825054</v>
       </c>
       <c r="K45">
-        <v>0.18253608647808919</v>
+        <v>0.18805451973768805</v>
       </c>
       <c r="L45">
-        <v>0.21328572770835291</v>
+        <v>0.22097134350576852</v>
       </c>
       <c r="M45">
-        <v>0.36182236796204564</v>
+        <v>0.3664634990995983</v>
       </c>
       <c r="N45">
-        <v>0.22044294610666293</v>
+        <v>0.22425682601807848</v>
       </c>
       <c r="O45">
-        <v>0.1388888888888889</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -2448,46 +2391,46 @@
         <v>19</v>
       </c>
       <c r="B46">
-        <v>0.51432484053479399</v>
+        <v>0.51615566884469022</v>
       </c>
       <c r="C46">
-        <v>0.40434782608695652</v>
+        <v>0.5150442477876106</v>
       </c>
       <c r="D46">
-        <v>0.4903194382432926</v>
+        <v>0.4924824185595344</v>
       </c>
       <c r="E46">
-        <v>0.40856447110530381</v>
+        <v>0.41040291305248822</v>
       </c>
       <c r="F46">
-        <v>0.50653507602027203</v>
+        <v>0.50882782424001061</v>
       </c>
       <c r="G46">
-        <v>0.48332988196313936</v>
+        <v>0.49432509120389134</v>
       </c>
       <c r="H46">
-        <v>0.44566894423627951</v>
+        <v>0.45201002287830916</v>
       </c>
       <c r="I46">
-        <v>0.41558441558441561</v>
+        <v>0.44272445820433437</v>
       </c>
       <c r="J46">
-        <v>0.13805970149253732</v>
+        <v>0.16531165311653118</v>
       </c>
       <c r="K46">
-        <v>0.16298789565667682</v>
+        <v>0.16863829240066863</v>
       </c>
       <c r="L46">
-        <v>0.24147326881518369</v>
+        <v>0.24888351321176033</v>
       </c>
       <c r="M46">
-        <v>0.40480011163050306</v>
+        <v>0.40912868818395898</v>
       </c>
       <c r="N46">
-        <v>0.22240951444491266</v>
+        <v>0.22621377318050509</v>
       </c>
       <c r="O46">
-        <v>0.13333333333333333</v>
+        <v>0.32903225806451614</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -2495,108 +2438,52 @@
         <v>20</v>
       </c>
       <c r="B47">
-        <v>0.45962016649248622</v>
+        <v>0.46165721260860199</v>
       </c>
       <c r="C47">
-        <v>0.45217391304347826</v>
+        <v>0.5539823008849557</v>
       </c>
       <c r="D47">
-        <v>0.47660023541827334</v>
+        <v>0.47882143723223669</v>
       </c>
       <c r="E47">
-        <v>0.40571360693710279</v>
+        <v>0.40756091062494448</v>
       </c>
       <c r="F47">
-        <v>0.49079754601226994</v>
+        <v>0.4931634143103677</v>
       </c>
       <c r="G47">
-        <v>0.47918823773037894</v>
+        <v>0.49027158492095663</v>
       </c>
       <c r="H47">
-        <v>0.5084857835574168</v>
+        <v>0.51410829066347097</v>
       </c>
       <c r="I47">
-        <v>0.39146567717996289</v>
+        <v>0.41972578505086244</v>
       </c>
       <c r="J47">
-        <v>0.15049751243781095</v>
+        <v>0.17735621800662452</v>
       </c>
       <c r="K47">
-        <v>0.15845685804906467</v>
+        <v>0.16413784235566414</v>
       </c>
       <c r="L47">
-        <v>0.21760781734473364</v>
+        <v>0.22525120952735392</v>
       </c>
       <c r="M47">
-        <v>0.39712551454684991</v>
+        <v>0.40150990441889456</v>
       </c>
       <c r="N47">
-        <v>0.2100482277473428</v>
+        <v>0.21391296244525207</v>
       </c>
       <c r="O47">
-        <v>0.15555555555555556</v>
+        <v>0.34623655913978496</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
-      <c r="B48">
-        <f xml:space="preserve"> MEDIAN(B28:B47)</f>
-        <v>0.53341824352323486</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48:O48" si="1" xml:space="preserve"> MEDIAN(C28:C47)</f>
-        <v>0.44441135289430733</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>0.49432565789473681</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>0.42052986957285815</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
-        <v>0.50645507312704829</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>0.50781057469956103</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="1"/>
-        <v>0.49890381579121357</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
-        <v>0.39009020536114131</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="1"/>
-        <v>0.17026702142222006</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="1"/>
-        <v>0.18417552108392926</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="1"/>
-        <v>0.24291033649395768</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="1"/>
-        <v>0.41169434280889389</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="1"/>
-        <v>0.20989268107100573</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="1"/>
-        <v>9.1763341067285384E-2</v>
-      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
@@ -2650,46 +2537,46 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>0.95022831050228307</v>
+        <v>0.95040758293838867</v>
       </c>
       <c r="C52">
-        <v>1.6744186046511629</v>
+        <v>1.5695581014729951</v>
       </c>
       <c r="D52">
-        <v>1.3813042600444174</v>
+        <v>1.3798471440064359</v>
       </c>
       <c r="E52">
-        <v>1.0041611441605276</v>
+        <v>1.0041489950212059</v>
       </c>
       <c r="F52">
-        <v>1.1655184442312723</v>
+        <v>1.1648356420165877</v>
       </c>
       <c r="G52">
-        <v>1.3842375530252289</v>
+        <v>1.3762571053782247</v>
       </c>
       <c r="H52">
-        <v>1.0740320082601962</v>
+        <v>1.0733128834355827</v>
       </c>
       <c r="I52">
-        <v>0.99383009017560509</v>
+        <v>0.99409627611262485</v>
       </c>
       <c r="J52">
-        <v>0.60469732054250747</v>
+        <v>0.61674150096215519</v>
       </c>
       <c r="K52">
-        <v>0.81086413257924506</v>
+        <v>0.81203842886085875</v>
       </c>
       <c r="L52">
-        <v>0.92692789063252146</v>
+        <v>0.9275901545506583</v>
       </c>
       <c r="M52">
-        <v>1.3795045045045045</v>
+        <v>1.3769838495420541</v>
       </c>
       <c r="N52">
-        <v>0.8585447139418626</v>
+        <v>0.85916401677496657</v>
       </c>
       <c r="O52">
-        <v>1.303964757709251</v>
+        <v>1.2513661202185793</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -2697,46 +2584,46 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>0.96971080669710807</v>
+        <v>0.96981990521327011</v>
       </c>
       <c r="C53">
-        <v>1.6511627906976745</v>
+        <v>1.5499181669394435</v>
       </c>
       <c r="D53">
-        <v>1.3926912982031092</v>
+        <v>1.3911906677393404</v>
       </c>
       <c r="E53">
-        <v>1.0284498967419782</v>
+        <v>1.0283668326264674</v>
       </c>
       <c r="F53">
-        <v>1.163425481817389</v>
+        <v>1.162751313561162</v>
       </c>
       <c r="G53">
-        <v>1.3418173699486493</v>
+        <v>1.3347179711412331</v>
       </c>
       <c r="H53">
-        <v>1.0267423851316468</v>
+        <v>1.0264826175869122</v>
       </c>
       <c r="I53">
-        <v>0.92643569055529185</v>
+        <v>0.92960944595821982</v>
       </c>
       <c r="J53">
-        <v>0.52265960965927882</v>
+        <v>0.53720333547145604</v>
       </c>
       <c r="K53">
-        <v>0.79613310535315007</v>
+        <v>0.79739886281942352</v>
       </c>
       <c r="L53">
-        <v>0.93328198709925869</v>
+        <v>0.93388666285060107</v>
       </c>
       <c r="M53">
-        <v>1.361204954954955</v>
+        <v>1.3588058449276375</v>
       </c>
       <c r="N53">
-        <v>0.84021477504165898</v>
+        <v>0.84091432784920961</v>
       </c>
       <c r="O53">
-        <v>1.1013215859030836</v>
+        <v>1.0837887067395264</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -2744,46 +2631,46 @@
         <v>3</v>
       </c>
       <c r="B54">
-        <v>0.98576864535768649</v>
+        <v>0.98581990521327012</v>
       </c>
       <c r="C54">
-        <v>1.6705426356589148</v>
+        <v>1.5662847790507366</v>
       </c>
       <c r="D54">
-        <v>1.4356551584898041</v>
+        <v>1.4339903459372485</v>
       </c>
       <c r="E54">
-        <v>0.9911537157476189</v>
+        <v>0.99117954391788066</v>
       </c>
       <c r="F54">
-        <v>1.1689195081538328</v>
+        <v>1.1682226757566547</v>
       </c>
       <c r="G54">
-        <v>1.3757535164099128</v>
+        <v>1.3679492785308265</v>
       </c>
       <c r="H54">
-        <v>1.1397005678884873</v>
+        <v>1.1383435582822086</v>
       </c>
       <c r="I54">
-        <v>0.8998576174655909</v>
+        <v>0.90417801998183467</v>
       </c>
       <c r="J54">
-        <v>0.53986106516705257</v>
+        <v>0.55388069275176399</v>
       </c>
       <c r="K54">
-        <v>0.82848875443903724</v>
+        <v>0.82955362394614729</v>
       </c>
       <c r="L54">
-        <v>0.93097140656589972</v>
+        <v>0.93159702346880369</v>
       </c>
       <c r="M54">
-        <v>1.3918918918918919</v>
+        <v>1.3892889603579668</v>
       </c>
       <c r="N54">
-        <v>0.85947046843177188</v>
+        <v>0.86008571823586344</v>
       </c>
       <c r="O54">
-        <v>1.2819383259911894</v>
+        <v>1.2331511839708562</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -2791,46 +2678,46 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>0.75</v>
+        <v>0.75090047393364934</v>
       </c>
       <c r="C55">
-        <v>1.3527131782945736</v>
+        <v>1.2978723404255319</v>
       </c>
       <c r="D55">
-        <v>1.1310316979608319</v>
+        <v>1.1305309734513274</v>
       </c>
       <c r="E55">
-        <v>0.81126899485251058</v>
+        <v>0.81182002581596902</v>
       </c>
       <c r="F55">
-        <v>1.1535711171186884</v>
+        <v>1.1529376004168657</v>
       </c>
       <c r="G55">
-        <v>1.400312569770038</v>
+        <v>1.3919982509838216</v>
       </c>
       <c r="H55">
-        <v>0.89478575116159009</v>
+        <v>0.89580777096114517</v>
       </c>
       <c r="I55">
-        <v>0.66635026103464645</v>
+        <v>0.68074477747502271</v>
       </c>
       <c r="J55">
-        <v>0.41746609328481643</v>
+        <v>0.43521488133418856</v>
       </c>
       <c r="K55">
-        <v>0.65342627910035511</v>
+        <v>0.65557806679302011</v>
       </c>
       <c r="L55">
-        <v>0.68316164436314619</v>
+        <v>0.68603319977103605</v>
       </c>
       <c r="M55">
-        <v>0.9911317567567568</v>
+        <v>0.99119065930224426</v>
       </c>
       <c r="N55">
-        <v>0.84141825587854102</v>
+        <v>0.84211253974837552</v>
       </c>
       <c r="O55">
-        <v>0.99559471365638763</v>
+        <v>0.99635701275045541</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -2838,46 +2725,46 @@
         <v>5</v>
       </c>
       <c r="B56">
-        <v>1.0030441400304415</v>
+        <v>1.0030331753554502</v>
       </c>
       <c r="C56">
-        <v>1.682170542635659</v>
+        <v>1.5761047463175122</v>
       </c>
       <c r="D56">
-        <v>1.3817080557238037</v>
+        <v>1.380249396621078</v>
       </c>
       <c r="E56">
-        <v>1.023579816909657</v>
+        <v>1.0235109717868338</v>
       </c>
       <c r="F56">
-        <v>1.1751983953954828</v>
+        <v>1.1744756611229319</v>
       </c>
       <c r="G56">
-        <v>1.3324402768475105</v>
+        <v>1.3255356362046349</v>
       </c>
       <c r="H56">
-        <v>1.0996386164171399</v>
+        <v>1.0986707566462168</v>
       </c>
       <c r="I56">
-        <v>0.97959183673469385</v>
+        <v>0.98047229791099</v>
       </c>
       <c r="J56">
-        <v>0.51405888190539195</v>
+        <v>0.52886465683130213</v>
       </c>
       <c r="K56">
-        <v>0.8062606865710904</v>
+        <v>0.80746356447291023</v>
       </c>
       <c r="L56">
-        <v>0.88957350534321744</v>
+        <v>0.89057431787826746</v>
       </c>
       <c r="M56">
-        <v>1.3460022522522523</v>
+        <v>1.3437041180171991</v>
       </c>
       <c r="N56">
-        <v>0.79503795593408633</v>
+        <v>0.79593529655744499</v>
       </c>
       <c r="O56">
-        <v>1.0704845814977975</v>
+        <v>1.0582877959927139</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -2885,46 +2772,46 @@
         <v>6</v>
       </c>
       <c r="B57">
-        <v>0.97839471622075447</v>
+        <v>0.97846783190777242</v>
       </c>
       <c r="C57">
-        <v>1.5795454545454546</v>
+        <v>1.494345718901454</v>
       </c>
       <c r="D57">
-        <v>1.3977086743044189</v>
+        <v>1.3962691909951475</v>
       </c>
       <c r="E57">
-        <v>1.0098667233370777</v>
+        <v>1.0098395398122919</v>
       </c>
       <c r="F57">
-        <v>1.182740021574973</v>
+        <v>1.1820252729304566</v>
       </c>
       <c r="G57">
-        <v>1.181214000886132</v>
+        <v>1.1776330076004342</v>
       </c>
       <c r="H57">
-        <v>1.1059813275879757</v>
+        <v>1.1050010164667616</v>
       </c>
       <c r="I57">
-        <v>0.89315307457479287</v>
+        <v>0.89723154362416102</v>
       </c>
       <c r="J57">
-        <v>0.54483695652173914</v>
+        <v>0.55848434925864909</v>
       </c>
       <c r="K57">
-        <v>0.81616420782552923</v>
+        <v>0.8172310439385243</v>
       </c>
       <c r="L57">
-        <v>0.89249863113706884</v>
+        <v>0.89338401665309075</v>
       </c>
       <c r="M57">
-        <v>1.3383915022761761</v>
+        <v>1.3362807594763177</v>
       </c>
       <c r="N57">
-        <v>0.78864241348713393</v>
+        <v>0.78949228933763427</v>
       </c>
       <c r="O57">
-        <v>1.1775280898876404</v>
+        <v>1.1473880597014925</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -2932,46 +2819,46 @@
         <v>7</v>
       </c>
       <c r="B58">
-        <v>0.99354453524385233</v>
+        <v>0.99356638155448118</v>
       </c>
       <c r="C58">
-        <v>1.4621212121212122</v>
+        <v>1.3941841680129241</v>
       </c>
       <c r="D58">
-        <v>1.424374276475989</v>
+        <v>1.4228382785776788</v>
       </c>
       <c r="E58">
-        <v>0.98855460092898995</v>
+        <v>0.98858613381774141</v>
       </c>
       <c r="F58">
-        <v>1.1492556634304207</v>
+        <v>1.1486718817158086</v>
       </c>
       <c r="G58">
-        <v>1.2370403190075321</v>
+        <v>1.232356134636265</v>
       </c>
       <c r="H58">
-        <v>1.167743921206525</v>
+        <v>1.1661923155112828</v>
       </c>
       <c r="I58">
-        <v>0.85651984300043615</v>
+        <v>0.86199664429530198</v>
       </c>
       <c r="J58">
-        <v>0.41032608695652173</v>
+        <v>0.42800658978583195</v>
       </c>
       <c r="K58">
-        <v>0.74932649134060292</v>
+        <v>0.75078120017856009</v>
       </c>
       <c r="L58">
-        <v>0.807811644460668</v>
+        <v>0.80939451534075479</v>
       </c>
       <c r="M58">
-        <v>1.2022347910056559</v>
+        <v>1.2009733360751251</v>
       </c>
       <c r="N58">
-        <v>0.78731144631765748</v>
+        <v>0.78816667403119611</v>
       </c>
       <c r="O58">
-        <v>1.2134831460674158</v>
+        <v>1.1772388059701493</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -2979,46 +2866,46 @@
         <v>8</v>
       </c>
       <c r="B59">
-        <v>0.94906526362923993</v>
+        <v>0.949237634808479</v>
       </c>
       <c r="C59">
-        <v>1.5568181818181819</v>
+        <v>1.4749596122778674</v>
       </c>
       <c r="D59">
-        <v>1.409923755538701</v>
+        <v>1.4084400604566065</v>
       </c>
       <c r="E59">
-        <v>0.9843650384043231</v>
+        <v>0.98440811383590676</v>
       </c>
       <c r="F59">
-        <v>1.2050053937432579</v>
+        <v>1.2042035588412277</v>
       </c>
       <c r="G59">
-        <v>1.1936198493575543</v>
+        <v>1.1897937024972856</v>
       </c>
       <c r="H59">
-        <v>1.0561198317431004</v>
+        <v>1.0556007318560683</v>
       </c>
       <c r="I59">
-        <v>0.90623637156563452</v>
+        <v>0.90981543624161076</v>
       </c>
       <c r="J59">
-        <v>0.60122282608695654</v>
+        <v>0.6131795716639209</v>
       </c>
       <c r="K59">
-        <v>0.79037844772289934</v>
+        <v>0.79159492379312546</v>
       </c>
       <c r="L59">
-        <v>0.85289286366125205</v>
+        <v>0.85410444384107154</v>
       </c>
       <c r="M59">
-        <v>1.2536901641605738</v>
+        <v>1.2521077524162041</v>
       </c>
       <c r="N59">
-        <v>0.81153504880212957</v>
+        <v>0.81229287260836902</v>
       </c>
       <c r="O59">
-        <v>1.146067415730337</v>
+        <v>1.1212686567164178</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -3026,46 +2913,46 @@
         <v>9</v>
       </c>
       <c r="B60">
-        <v>0.95406545020336575</v>
+        <v>0.95422089996281145</v>
       </c>
       <c r="C60">
-        <v>1.3674242424242424</v>
+        <v>1.3134087237479806</v>
       </c>
       <c r="D60">
-        <v>1.3280108578499861</v>
+        <v>1.3268236417150585</v>
       </c>
       <c r="E60">
-        <v>0.92977928898873674</v>
+        <v>0.92997275204359675</v>
       </c>
       <c r="F60">
-        <v>1.1664293419633225</v>
+        <v>1.1657783890655893</v>
       </c>
       <c r="G60">
-        <v>1.2268498006202924</v>
+        <v>1.2223669923995657</v>
       </c>
       <c r="H60">
-        <v>1.0823843233815533</v>
+        <v>1.0816222809514129</v>
       </c>
       <c r="I60">
-        <v>0.88355865678150891</v>
+        <v>0.88800335570469802</v>
       </c>
       <c r="J60">
-        <v>0.546875</v>
+        <v>0.56046128500823722</v>
       </c>
       <c r="K60">
-        <v>0.78011545862732523</v>
+        <v>0.78139149288948406</v>
       </c>
       <c r="L60">
-        <v>0.7983208614710714</v>
+        <v>0.79998189881437232</v>
       </c>
       <c r="M60">
-        <v>1.2447234101255344</v>
+        <v>1.2431969291932279</v>
       </c>
       <c r="N60">
-        <v>0.73549245785270634</v>
+        <v>0.73655605143387393</v>
       </c>
       <c r="O60">
-        <v>1.047191011235955</v>
+        <v>1.039179104477612</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -3073,46 +2960,46 @@
         <v>10</v>
       </c>
       <c r="B61">
-        <v>0.93316914810254115</v>
+        <v>0.93339531424321309</v>
       </c>
       <c r="C61">
-        <v>1.5303030303030303</v>
+        <v>1.4523424878836833</v>
       </c>
       <c r="D61">
-        <v>1.4529559698215639</v>
+        <v>1.4513165221541644</v>
       </c>
       <c r="E61">
-        <v>0.97598591335498952</v>
+        <v>0.97605207387223736</v>
       </c>
       <c r="F61">
-        <v>1.1997411003236247</v>
+        <v>1.1989598555832546</v>
       </c>
       <c r="G61">
-        <v>1.4426229508196722</v>
+        <v>1.4338762214983714</v>
       </c>
       <c r="H61">
-        <v>1.1640504770698676</v>
+        <v>1.16253303516975</v>
       </c>
       <c r="I61">
-        <v>0.94286960313999124</v>
+        <v>0.9450503355704698</v>
       </c>
       <c r="J61">
-        <v>0.54551630434782605</v>
+        <v>0.55914332784184517</v>
       </c>
       <c r="K61">
-        <v>0.7958948043617704</v>
+        <v>0.79707926790383266</v>
       </c>
       <c r="L61">
-        <v>0.81967512319766378</v>
+        <v>0.82116028599873292</v>
       </c>
       <c r="M61">
-        <v>1.2506552627948682</v>
+        <v>1.2490917814791966</v>
       </c>
       <c r="N61">
-        <v>0.76539485359361137</v>
+        <v>0.76633820865184921</v>
       </c>
       <c r="O61">
-        <v>0.95730337078651684</v>
+        <v>0.96455223880597019</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3120,46 +3007,46 @@
         <v>11</v>
       </c>
       <c r="B62">
-        <v>0.91628916213026756</v>
+        <v>0.91657498387647485</v>
       </c>
       <c r="C62">
-        <v>1.6725838264299804</v>
+        <v>1.5711892797319933</v>
       </c>
       <c r="D62">
-        <v>1.3898207531655977</v>
+        <v>1.3883837142623086</v>
       </c>
       <c r="E62">
-        <v>1.0015493306891423</v>
+        <v>1.0015450219393116</v>
       </c>
       <c r="F62">
-        <v>1.0151678838425306</v>
+        <v>1.0151091214325685</v>
       </c>
       <c r="G62">
-        <v>0.88320312499999998</v>
+        <v>0.88522072936660268</v>
       </c>
       <c r="H62">
-        <v>1.0551235132662398</v>
+        <v>1.0545619198551053</v>
       </c>
       <c r="I62">
-        <v>0.87591240875912413</v>
+        <v>0.88147410358565736</v>
       </c>
       <c r="J62">
-        <v>0.46852911477616965</v>
+        <v>0.48415550473701408</v>
       </c>
       <c r="K62">
-        <v>0.82647512922064847</v>
+        <v>0.82751718155734966</v>
       </c>
       <c r="L62">
-        <v>0.8249102725773596</v>
+        <v>0.82642561784786994</v>
       </c>
       <c r="M62">
-        <v>1.2415769607157836</v>
+        <v>1.2400666851903306</v>
       </c>
       <c r="N62">
-        <v>0.77350507709665284</v>
+        <v>0.77445932028836251</v>
       </c>
       <c r="O62">
-        <v>1.1093333333333333</v>
+        <v>1.0881720430107527</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -3167,46 +3054,46 @@
         <v>12</v>
       </c>
       <c r="B63">
-        <v>0.89809280901442767</v>
+        <v>0.898440760271634</v>
       </c>
       <c r="C63">
-        <v>1.5108481262327416</v>
+        <v>1.4338358458961473</v>
       </c>
       <c r="D63">
-        <v>1.3944252590034534</v>
+        <v>1.3929712460063899</v>
       </c>
       <c r="E63">
-        <v>0.9980788299454636</v>
+        <v>0.99808417279525374</v>
       </c>
       <c r="F63">
-        <v>1.165550321939415</v>
+        <v>1.1649089578580345</v>
       </c>
       <c r="G63">
-        <v>1.0765625000000001</v>
+        <v>1.0752399232245682</v>
       </c>
       <c r="H63">
-        <v>1.0123513266239708</v>
+        <v>1.0122254924156668</v>
       </c>
       <c r="I63">
-        <v>0.99165797705943692</v>
+        <v>0.99203187250996017</v>
       </c>
       <c r="J63">
-        <v>0.50757320767418379</v>
+        <v>0.52205161711858872</v>
       </c>
       <c r="K63">
-        <v>0.76552325971672153</v>
+        <v>0.7669313404950957</v>
       </c>
       <c r="L63">
-        <v>0.85439906877485694</v>
+        <v>0.85565919799980772</v>
       </c>
       <c r="M63">
-        <v>1.3096602823989933</v>
+        <v>1.3077243678799666</v>
       </c>
       <c r="N63">
-        <v>0.79983076344490411</v>
+        <v>0.8006740941859376</v>
       </c>
       <c r="O63">
-        <v>1.296</v>
+        <v>1.2387096774193549</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3214,46 +3101,46 @@
         <v>13</v>
       </c>
       <c r="B64">
-        <v>0.94910350603372795</v>
+        <v>0.94927728669524636</v>
       </c>
       <c r="C64">
-        <v>1.5187376725838264</v>
+        <v>1.4405360134003351</v>
       </c>
       <c r="D64">
-        <v>1.4215589541193883</v>
+        <v>1.4200049152125829</v>
       </c>
       <c r="E64">
-        <v>1.0085523054040655</v>
+        <v>1.0085285211049997</v>
       </c>
       <c r="F64">
-        <v>1.1480921308500065</v>
+        <v>1.1475184021350782</v>
       </c>
       <c r="G64">
-        <v>1.145703125</v>
+        <v>1.1431861804222649</v>
       </c>
       <c r="H64">
-        <v>1.0548947849954253</v>
+        <v>1.0543355218474078</v>
       </c>
       <c r="I64">
-        <v>0.90093847758081336</v>
+        <v>0.90537848605577687</v>
       </c>
       <c r="J64">
-        <v>0.51295859979804781</v>
+        <v>0.52727866710225413</v>
       </c>
       <c r="K64">
-        <v>0.83399342149426059</v>
+        <v>0.83499032494828851</v>
       </c>
       <c r="L64">
-        <v>0.8772916868755456</v>
+        <v>0.87835368785460144</v>
       </c>
       <c r="M64">
-        <v>1.3434922410177548</v>
+        <v>1.3413448180050014</v>
       </c>
       <c r="N64">
-        <v>0.78177886423467469</v>
+        <v>0.78269824922760045</v>
       </c>
       <c r="O64">
-        <v>1.2693333333333334</v>
+        <v>1.2172043010752689</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -3261,46 +3148,46 @@
         <v>14</v>
       </c>
       <c r="B65">
-        <v>0.95252959762457645</v>
+        <v>0.95269168026101136</v>
       </c>
       <c r="C65">
-        <v>1.6962524654832347</v>
+        <v>1.5912897822445562</v>
       </c>
       <c r="D65">
-        <v>1.4005097845749055</v>
+        <v>1.3990333415253544</v>
       </c>
       <c r="E65">
-        <v>0.99876053544868615</v>
+        <v>0.9987639824485508</v>
       </c>
       <c r="F65">
-        <v>1.1883669677196318</v>
+        <v>1.1876372089018983</v>
       </c>
       <c r="G65">
-        <v>1.127734375</v>
+        <v>1.12552783109405</v>
       </c>
       <c r="H65">
-        <v>1.0022872827081428</v>
+        <v>1.0022639800769753</v>
       </c>
       <c r="I65">
-        <v>0.959332638164755</v>
+        <v>0.96115537848605581</v>
       </c>
       <c r="J65">
-        <v>0.59979804779535506</v>
+        <v>0.6115648480888598</v>
       </c>
       <c r="K65">
-        <v>0.90380613546351618</v>
+        <v>0.90438379929272039</v>
       </c>
       <c r="L65">
-        <v>0.8772916868755456</v>
+        <v>0.87835368785460144</v>
       </c>
       <c r="M65">
-        <v>1.2995945757025025</v>
+        <v>1.2977215893303695</v>
       </c>
       <c r="N65">
-        <v>0.8329259119969914</v>
+        <v>0.83362980994288927</v>
       </c>
       <c r="O65">
-        <v>1.248</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -3308,46 +3195,46 @@
         <v>15</v>
       </c>
       <c r="B66">
-        <v>1.0174730671133274</v>
+        <v>1.0174134071854015</v>
       </c>
       <c r="C66">
-        <v>1.6291913214990139</v>
+        <v>1.5343383584589614</v>
       </c>
       <c r="D66">
-        <v>1.4481993093241243</v>
+        <v>1.4465470631604818</v>
       </c>
       <c r="E66">
-        <v>1.0448686167575607</v>
+        <v>1.0447438353624621</v>
       </c>
       <c r="F66">
-        <v>1.1722916036472062</v>
+        <v>1.1716241229391762</v>
       </c>
       <c r="G66">
-        <v>1.1714843749999999</v>
+        <v>1.1685220729366603</v>
       </c>
       <c r="H66">
-        <v>1.0693046660567247</v>
+        <v>1.0685985963323523</v>
       </c>
       <c r="I66">
-        <v>1.0917622523461941</v>
+        <v>1.0876494023904382</v>
       </c>
       <c r="J66">
-        <v>0.55132951868057889</v>
+        <v>0.56452139823587066</v>
       </c>
       <c r="K66">
-        <v>0.88447338390279917</v>
+        <v>0.88516714485887771</v>
       </c>
       <c r="L66">
-        <v>0.90464642545348728</v>
+        <v>0.90547167996922784</v>
       </c>
       <c r="M66">
-        <v>1.3906053404166083</v>
+        <v>1.3881633787163101</v>
       </c>
       <c r="N66">
-        <v>0.82361790146671676</v>
+        <v>0.82436101488624658</v>
       </c>
       <c r="O66">
-        <v>1.2053333333333334</v>
+        <v>1.1655913978494623</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -3355,46 +3242,46 @@
         <v>16</v>
       </c>
       <c r="B67">
-        <v>0.87802067202074408</v>
+        <v>0.87840166582896528</v>
       </c>
       <c r="C67">
-        <v>1.5899581589958158</v>
+        <v>1.4991150442477876</v>
       </c>
       <c r="D67">
-        <v>1.4613668627053336</v>
+        <v>1.4597445638994422</v>
       </c>
       <c r="E67">
-        <v>0.97091297637421348</v>
+        <v>0.97098789188549095</v>
       </c>
       <c r="F67">
-        <v>1.1852345415778252</v>
+        <v>1.1845214390017258</v>
       </c>
       <c r="G67">
-        <v>1.1916649473901382</v>
+        <v>1.1882853668423186</v>
       </c>
       <c r="H67">
-        <v>0.96194456665200179</v>
+        <v>0.96230526201111233</v>
       </c>
       <c r="I67">
-        <v>0.85648574057037719</v>
+        <v>0.86200796107916855</v>
       </c>
       <c r="J67">
-        <v>0.48979591836734693</v>
+        <v>0.50316169828364954</v>
       </c>
       <c r="K67">
-        <v>0.80481024115859567</v>
+        <v>0.80590201877330592</v>
       </c>
       <c r="L67">
-        <v>0.87515242472563548</v>
+        <v>0.87616300707108297</v>
       </c>
       <c r="M67">
-        <v>1.452999790955334</v>
+        <v>1.4502701205153068</v>
       </c>
       <c r="N67">
-        <v>0.77436257309941525</v>
+        <v>0.77527723418134376</v>
       </c>
       <c r="O67">
-        <v>1.0846560846560847</v>
+        <v>1.0688172043010753</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -3402,46 +3289,46 @@
         <v>17</v>
       </c>
       <c r="B68">
-        <v>0.86988151402744263</v>
+        <v>0.87028792992029869</v>
       </c>
       <c r="C68">
-        <v>1.6778242677824269</v>
+        <v>1.5734513274336284</v>
       </c>
       <c r="D68">
-        <v>1.3989048874467653</v>
+        <v>1.3975022229407486</v>
       </c>
       <c r="E68">
-        <v>0.92657010566306541</v>
+        <v>0.9267592291068415</v>
       </c>
       <c r="F68">
-        <v>1.1779495380241649</v>
+        <v>1.1772644807292358</v>
       </c>
       <c r="G68">
-        <v>1.2424179905095936</v>
+        <v>1.2381434941224159</v>
       </c>
       <c r="H68">
-        <v>0.99230092388913327</v>
+        <v>0.99237389693866429</v>
       </c>
       <c r="I68">
-        <v>0.8840846366145354</v>
+        <v>0.88854489164086692</v>
       </c>
       <c r="J68">
-        <v>0.61533704390847244</v>
+        <v>0.62541403191809697</v>
       </c>
       <c r="K68">
-        <v>0.85239542251244582</v>
+        <v>0.8532210363893532</v>
       </c>
       <c r="L68">
-        <v>0.83331770002813998</v>
+        <v>0.83466691477484178</v>
       </c>
       <c r="M68">
-        <v>1.2321092606786983</v>
+        <v>1.2307106247402688</v>
       </c>
       <c r="N68">
-        <v>0.75995321637426905</v>
+        <v>0.76092628832354858</v>
       </c>
       <c r="O68">
-        <v>1.0476190476190477</v>
+        <v>1.0387096774193549</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -3449,46 +3336,46 @@
         <v>18</v>
       </c>
       <c r="B69">
-        <v>0.76443259984874135</v>
+        <v>0.76516837797084802</v>
       </c>
       <c r="C69">
-        <v>1.4686192468619246</v>
+        <v>1.3964601769911504</v>
       </c>
       <c r="D69">
-        <v>1.4369499087406206</v>
+        <v>1.4354134669792256</v>
       </c>
       <c r="E69">
-        <v>0.96010922474177851</v>
+        <v>0.96021196601438763</v>
       </c>
       <c r="F69">
-        <v>1.1763503909026296</v>
+        <v>1.1756714898889331</v>
       </c>
       <c r="G69">
-        <v>1.2601609242830616</v>
+        <v>1.2555735711390352</v>
       </c>
       <c r="H69">
-        <v>0.92542894852617685</v>
+        <v>0.92613574463449178</v>
       </c>
       <c r="I69">
-        <v>0.79852805887764489</v>
+        <v>0.8062804068996019</v>
       </c>
       <c r="J69">
-        <v>0.51329622758194182</v>
+        <v>0.52604637157482681</v>
       </c>
       <c r="K69">
-        <v>0.79291394582013319</v>
+        <v>0.79407226436929412</v>
       </c>
       <c r="L69">
-        <v>0.81174373886127005</v>
+        <v>0.81326758466691473</v>
       </c>
       <c r="M69">
-        <v>1.2957982022158734</v>
+        <v>1.2940157916608948</v>
       </c>
       <c r="N69">
-        <v>0.7876491228070176</v>
+        <v>0.78850992451775226</v>
       </c>
       <c r="O69">
-        <v>1.1005291005291005</v>
+        <v>1.0817204301075269</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -3496,46 +3383,46 @@
         <v>19</v>
       </c>
       <c r="B70">
-        <v>0.82601649439982716</v>
+        <v>0.82655991958067065</v>
       </c>
       <c r="C70">
-        <v>1.389121338912134</v>
+        <v>1.3292035398230089</v>
       </c>
       <c r="D70">
-        <v>1.4210504968566213</v>
+        <v>1.4195699620079218</v>
       </c>
       <c r="E70">
-        <v>0.95298587201709606</v>
+        <v>0.9531069599455283</v>
       </c>
       <c r="F70">
-        <v>1.1785714285714286</v>
+        <v>1.1778839771671312</v>
       </c>
       <c r="G70">
-        <v>1.1660821126469982</v>
+        <v>1.1631536278881232</v>
       </c>
       <c r="H70">
-        <v>0.9441267047954246</v>
+        <v>0.9446562806405927</v>
       </c>
       <c r="I70">
-        <v>0.83808647654093837</v>
+        <v>0.84431667403803623</v>
       </c>
       <c r="J70">
-        <v>0.42671614100185529</v>
+        <v>0.44173441734417346</v>
       </c>
       <c r="K70">
-        <v>0.68002844766276593</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="L70">
-        <v>0.83012850576868957</v>
+        <v>0.83150353554149614</v>
       </c>
       <c r="M70">
-        <v>1.2199846700578356</v>
+        <v>1.2186590940573487</v>
       </c>
       <c r="N70">
-        <v>0.75359064327485381</v>
+        <v>0.75458950703569094</v>
       </c>
       <c r="O70">
-        <v>1.0317460317460319</v>
+        <v>1.0258064516129033</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -3543,108 +3430,52 @@
         <v>20</v>
       </c>
       <c r="B71">
-        <v>0.85814095869197249</v>
+        <v>0.85858404537947874</v>
       </c>
       <c r="C71">
-        <v>1.4811715481171548</v>
+        <v>1.4070796460176991</v>
       </c>
       <c r="D71">
-        <v>1.4090448184952342</v>
+        <v>1.4076064990704067</v>
       </c>
       <c r="E71">
-        <v>0.95357948474415288</v>
+        <v>0.95369904378459991</v>
       </c>
       <c r="F71">
-        <v>1.1233120113717128</v>
+        <v>1.1228372936855613</v>
       </c>
       <c r="G71">
-        <v>1.1334846296678358</v>
+        <v>1.1311309282529387</v>
       </c>
       <c r="H71">
-        <v>1.0239771227452705</v>
+        <v>1.0237498638195881</v>
       </c>
       <c r="I71">
-        <v>0.77368905243790254</v>
+        <v>0.78239716939407344</v>
       </c>
       <c r="J71">
-        <v>0.51391465677179959</v>
+        <v>0.52664859981933154</v>
       </c>
       <c r="K71">
-        <v>0.71442425809788579</v>
+        <v>0.71602160216021604</v>
       </c>
       <c r="L71">
-        <v>0.79467216959009479</v>
+        <v>0.79633420171194635</v>
       </c>
       <c r="M71">
-        <v>1.2868789631384572</v>
+        <v>1.2851502978251836</v>
       </c>
       <c r="N71">
-        <v>0.71784795321637429</v>
+        <v>0.71899170627154974</v>
       </c>
       <c r="O71">
-        <v>0.98412698412698407</v>
+        <v>0.98709677419354835</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
-      <c r="B72">
-        <f t="shared" ref="B72:O72" si="2" xml:space="preserve"> MEDIAN(B52:B71)</f>
-        <v>0.94908438483148394</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="2"/>
-        <v>1.5681818181818183</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="2"/>
-        <v>1.40477730153507</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="2"/>
-        <v>0.98985415833830448</v>
-      </c>
-      <c r="F72">
-        <f xml:space="preserve"> MEDIAN(F52:F71)</f>
-        <v>1.1706055559005195</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="2"/>
-        <v>1.2102348249889232</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="2"/>
-        <v>1.0550091491308327</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="2"/>
-        <v>0.89650534602019194</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="2"/>
-        <v>0.51835924578233539</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="2"/>
-        <v>0.80047167325587287</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="2"/>
-        <v>0.85364596621805444</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="2"/>
-        <v>1.2976963889591879</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="2"/>
-        <v>0.78814576814707582</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="2"/>
-        <v>1.1053274596182083</v>
-      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -3698,46 +3529,46 @@
         <v>1</v>
       </c>
       <c r="B76">
-        <v>0.39887383959823469</v>
+        <v>0.40094786729857818</v>
       </c>
       <c r="C76">
-        <v>0.69230769230769229</v>
+        <v>0.73813420621931258</v>
       </c>
       <c r="D76">
-        <v>0.52501110258791228</v>
+        <v>0.52674979887369267</v>
       </c>
       <c r="E76">
-        <v>0.80925817486978768</v>
+        <v>0.80979162825004614</v>
       </c>
       <c r="F76">
-        <v>0.90243264452001049</v>
+        <v>0.90281818576577355</v>
       </c>
       <c r="G76">
-        <v>0.86995315636850323</v>
+        <v>0.8725404459991255</v>
       </c>
       <c r="H76">
-        <v>0.53091134275983076</v>
+        <v>0.53527607361963192</v>
       </c>
       <c r="I76">
-        <v>0.43675982946470865</v>
+        <v>0.46003633060853771</v>
       </c>
       <c r="J76">
-        <v>0.30591344565576478</v>
+        <v>0.3261706221937139</v>
       </c>
       <c r="K76">
-        <v>0.5910585141354372</v>
+        <v>0.59349062152800469</v>
       </c>
       <c r="L76">
-        <v>0.23847560388797998</v>
+        <v>0.24508681549322647</v>
       </c>
       <c r="M76">
-        <v>0.17647058823529413</v>
+        <v>0.18171013074180242</v>
       </c>
       <c r="N76">
-        <v>0.41530914476119957</v>
+        <v>0.41776118715148164</v>
       </c>
       <c r="O76">
-        <v>0.55895196506550215</v>
+        <v>0.63205828779599271</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -3745,46 +3576,46 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>0.52754527469182777</v>
+        <v>0.52917535545023697</v>
       </c>
       <c r="C77">
-        <v>0.8</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="D77">
-        <v>0.64217368484799553</v>
+        <v>0.64348350764279971</v>
       </c>
       <c r="E77">
-        <v>0.97784078651339101</v>
+        <v>0.97790275985002151</v>
       </c>
       <c r="F77">
-        <v>0.87583921876362369</v>
+        <v>0.87632984497807109</v>
       </c>
       <c r="G77">
-        <v>0.8891367387909882</v>
+        <v>0.89134236991692173</v>
       </c>
       <c r="H77">
-        <v>0.62400660542883679</v>
+        <v>0.62750511247443763</v>
       </c>
       <c r="I77">
-        <v>0.58360966366650879</v>
+        <v>0.60081743869209814</v>
       </c>
       <c r="J77">
-        <v>0.3019491245457549</v>
+        <v>0.32232200128287364</v>
       </c>
       <c r="K77">
-        <v>0.59618671926364231</v>
+        <v>0.59858832756029012</v>
       </c>
       <c r="L77">
-        <v>0.34221922817823114</v>
+        <v>0.34792978439229155</v>
       </c>
       <c r="M77">
-        <v>0.30861244019138756</v>
+        <v>0.31301125637978044</v>
       </c>
       <c r="N77">
-        <v>0.4206775268419104</v>
+        <v>0.42310705562468315</v>
       </c>
       <c r="O77">
-        <v>0.51528384279475981</v>
+        <v>0.59562841530054644</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -3792,46 +3623,46 @@
         <v>3</v>
       </c>
       <c r="B78">
-        <v>0.54200273930908538</v>
+        <v>0.54358293838862559</v>
       </c>
       <c r="C78">
-        <v>0.79230769230769227</v>
+        <v>0.823240589198036</v>
       </c>
       <c r="D78">
-        <v>0.6237635754370382</v>
+        <v>0.62514078841512466</v>
       </c>
       <c r="E78">
-        <v>0.97747095263044348</v>
+        <v>0.97753396029258099</v>
       </c>
       <c r="F78">
-        <v>0.83799808178568314</v>
+        <v>0.83863823874245513</v>
       </c>
       <c r="G78">
-        <v>0.90073611420923494</v>
+        <v>0.90271097507651943</v>
       </c>
       <c r="H78">
-        <v>0.66446485705439162</v>
+        <v>0.66758691206543963</v>
       </c>
       <c r="I78">
-        <v>0.67171956418758882</v>
+        <v>0.68528610354223429</v>
       </c>
       <c r="J78">
-        <v>0.27882391807069706</v>
+        <v>0.2998717126363053</v>
       </c>
       <c r="K78">
-        <v>0.43839579224194608</v>
+        <v>0.44173583425919877</v>
       </c>
       <c r="L78">
-        <v>0.34741603310557212</v>
+        <v>0.35308147300133563</v>
       </c>
       <c r="M78">
-        <v>0.27877849704475094</v>
+        <v>0.28336712577780887</v>
       </c>
       <c r="N78">
-        <v>0.40633098852276933</v>
+        <v>0.4088206829807825</v>
       </c>
       <c r="O78">
-        <v>0.5633187772925764</v>
+        <v>0.63570127504553731</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -3839,46 +3670,46 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>0.60607213513924818</v>
+        <v>0.60743127962085308</v>
       </c>
       <c r="C79">
-        <v>0.83461538461538465</v>
+        <v>0.85924713584288048</v>
       </c>
       <c r="D79">
-        <v>0.6800436028907102</v>
+        <v>0.68121480289621883</v>
       </c>
       <c r="E79">
-        <v>1.0049619379295467</v>
+        <v>1.0049480607289938</v>
       </c>
       <c r="F79">
-        <v>0.90783852123114483</v>
+        <v>0.90820270094229016</v>
       </c>
       <c r="G79">
-        <v>0.9096587106848093</v>
+        <v>0.91145605596851775</v>
       </c>
       <c r="H79">
-        <v>0.68448756321601811</v>
+        <v>0.68742331288343561</v>
       </c>
       <c r="I79">
-        <v>0.6783514921837992</v>
+        <v>0.69164396003633066</v>
       </c>
       <c r="J79">
-        <v>0.33168153287082919</v>
+        <v>0.35118665811417576</v>
       </c>
       <c r="K79">
-        <v>0.68323471400394475</v>
+        <v>0.68511861969805898</v>
       </c>
       <c r="L79">
-        <v>0.3599268597825041</v>
+        <v>0.3654836863194047</v>
       </c>
       <c r="M79">
-        <v>0.28736279200675485</v>
+        <v>0.29189680486611203</v>
       </c>
       <c r="N79">
-        <v>0.46325435024065159</v>
+        <v>0.46550532282593665</v>
       </c>
       <c r="O79">
-        <v>0.55458515283842791</v>
+        <v>0.62841530054644812</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -3886,46 +3717,46 @@
         <v>5</v>
       </c>
       <c r="B80">
-        <v>0.55105767767463099</v>
+        <v>0.55260663507109009</v>
       </c>
       <c r="C80">
-        <v>0.75</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="D80">
-        <v>0.68367717711655696</v>
+        <v>0.68483507642799679</v>
       </c>
       <c r="E80">
-        <v>1.0262273861990323</v>
+        <v>1.0261540352818244</v>
       </c>
       <c r="F80">
-        <v>0.91577295317813234</v>
+        <v>0.91610577966911289</v>
       </c>
       <c r="G80">
-        <v>0.88645995984831583</v>
+        <v>0.88871884564932224</v>
       </c>
       <c r="H80">
-        <v>0.68015275054185154</v>
+        <v>0.68312883435582827</v>
       </c>
       <c r="I80">
-        <v>0.58834675509237333</v>
+        <v>0.60535876475930972</v>
       </c>
       <c r="J80">
-        <v>0.29468120251073671</v>
+        <v>0.31526619627966646</v>
       </c>
       <c r="K80">
-        <v>0.65706771860618018</v>
+        <v>0.65910724789229458</v>
       </c>
       <c r="L80">
-        <v>0.39611202001732271</v>
+        <v>0.40135470330089679</v>
       </c>
       <c r="M80">
-        <v>0.30185758513931887</v>
+        <v>0.30629937775291899</v>
       </c>
       <c r="N80">
-        <v>0.44937060348019253</v>
+        <v>0.45167980091248444</v>
       </c>
       <c r="O80">
-        <v>0.64192139737991272</v>
+        <v>0.70127504553734066</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -3933,46 +3764,46 @@
         <v>6</v>
       </c>
       <c r="B81">
-        <v>0.56899832120872973</v>
+        <v>0.57036072889550016</v>
       </c>
       <c r="C81">
-        <v>0.76029962546816476</v>
+        <v>0.79321486268174479</v>
       </c>
       <c r="D81">
-        <v>0.6633675220497266</v>
+        <v>0.66450560814573223</v>
       </c>
       <c r="E81">
-        <v>0.99189558354833818</v>
+        <v>0.99191643960036335</v>
       </c>
       <c r="F81">
-        <v>0.91367930632845862</v>
+        <v>0.91399467033439352</v>
       </c>
       <c r="G81">
-        <v>0.8584070796460177</v>
+        <v>0.86102062975027149</v>
       </c>
       <c r="H81">
-        <v>0.68102122423869582</v>
+        <v>0.68377719048587116</v>
       </c>
       <c r="I81">
-        <v>0.58895171813832103</v>
+        <v>0.60360738255033553</v>
       </c>
       <c r="J81">
-        <v>0.32610169491525426</v>
+        <v>0.34497528830313012</v>
       </c>
       <c r="K81">
-        <v>0.6451654270325724</v>
+        <v>0.64708883362030478</v>
       </c>
       <c r="L81">
-        <v>0.34439985406785845</v>
+        <v>0.34944338854194951</v>
       </c>
       <c r="M81">
-        <v>0.30005515719801434</v>
+        <v>0.3041332510795805</v>
       </c>
       <c r="N81">
-        <v>0.41390934090304266</v>
+        <v>0.41611064469091069</v>
       </c>
       <c r="O81">
-        <v>0.52771618625277161</v>
+        <v>0.60261194029850751</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -3980,46 +3811,46 @@
         <v>7</v>
       </c>
       <c r="B82">
-        <v>0.4841634023503078</v>
+        <v>0.48579397545555969</v>
       </c>
       <c r="C82">
-        <v>0.67041198501872656</v>
+        <v>0.71567043618739901</v>
       </c>
       <c r="D82">
-        <v>0.6580197150496867</v>
+        <v>0.65917588099594304</v>
       </c>
       <c r="E82">
-        <v>0.98163606010016691</v>
+        <v>0.98168331819557975</v>
       </c>
       <c r="F82">
-        <v>0.89452568914196973</v>
+        <v>0.89491102896931141</v>
       </c>
       <c r="G82">
-        <v>0.89424778761061952</v>
+        <v>0.89619978284473401</v>
       </c>
       <c r="H82">
-        <v>0.70214293038039577</v>
+        <v>0.70471640577353123</v>
       </c>
       <c r="I82">
-        <v>0.58808177468464551</v>
+        <v>0.60276845637583898</v>
       </c>
       <c r="J82">
-        <v>0.35322033898305083</v>
+        <v>0.37133443163097202</v>
       </c>
       <c r="K82">
-        <v>0.67158245704026676</v>
+        <v>0.67336266819718127</v>
       </c>
       <c r="L82">
-        <v>0.34330536300620212</v>
+        <v>0.34835731740428999</v>
       </c>
       <c r="M82">
-        <v>0.26930501930501932</v>
+        <v>0.27356227294536978</v>
       </c>
       <c r="N82">
-        <v>0.39634524971170054</v>
+        <v>0.39861252264592817</v>
       </c>
       <c r="O82">
-        <v>0.56319290465631933</v>
+        <v>0.6324626865671642</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
@@ -4027,46 +3858,46 @@
         <v>8</v>
       </c>
       <c r="B83">
-        <v>0.53325872038798727</v>
+        <v>0.53473410189661585</v>
       </c>
       <c r="C83">
-        <v>0.76779026217228463</v>
+        <v>0.79967689822294019</v>
       </c>
       <c r="D83">
-        <v>0.61938779582551784</v>
+        <v>0.62067456845119717</v>
       </c>
       <c r="E83">
-        <v>0.98206101077553498</v>
+        <v>0.98210717529518621</v>
       </c>
       <c r="F83">
-        <v>0.90082395064923859</v>
+        <v>0.90118628040918081</v>
       </c>
       <c r="G83">
-        <v>0.8252212389380531</v>
+        <v>0.82844733984799135</v>
       </c>
       <c r="H83">
-        <v>0.65600328104173078</v>
+        <v>0.65897540150437084</v>
       </c>
       <c r="I83">
-        <v>0.52457590256633324</v>
+        <v>0.54152684563758391</v>
       </c>
       <c r="J83">
-        <v>0.31457627118644066</v>
+        <v>0.33377265238879739</v>
       </c>
       <c r="K83">
-        <v>0.57796870992562199</v>
+        <v>0.58025636120145396</v>
       </c>
       <c r="L83">
-        <v>0.34786574242977014</v>
+        <v>0.35288261381120462</v>
       </c>
       <c r="M83">
-        <v>0.30694980694980695</v>
+        <v>0.3109877304818699</v>
       </c>
       <c r="N83">
-        <v>0.44575534462875899</v>
+        <v>0.44783703769166189</v>
       </c>
       <c r="O83">
-        <v>0.53658536585365857</v>
+        <v>0.6100746268656716</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -4074,46 +3905,46 @@
         <v>9</v>
       </c>
       <c r="B84">
-        <v>0.52296213393023694</v>
+        <v>0.52447006322052803</v>
       </c>
       <c r="C84">
-        <v>0.61423220973782766</v>
+        <v>0.6672051696284329</v>
       </c>
       <c r="D84">
-        <v>0.63750648521371278</v>
+        <v>0.63873200222734861</v>
       </c>
       <c r="E84">
-        <v>0.9735012900288359</v>
+        <v>0.97356948228882834</v>
       </c>
       <c r="F84">
-        <v>0.89107458694620589</v>
+        <v>0.89147253502965706</v>
       </c>
       <c r="G84">
-        <v>0.84159292035398225</v>
+        <v>0.84451682953311613</v>
       </c>
       <c r="H84">
-        <v>0.73638880344509383</v>
+        <v>0.7386663956088636</v>
       </c>
       <c r="I84">
-        <v>0.58460200086994341</v>
+        <v>0.59941275167785235</v>
       </c>
       <c r="J84">
-        <v>0.29627118644067796</v>
+        <v>0.31598023064250413</v>
       </c>
       <c r="K84">
-        <v>0.55668120030777124</v>
+        <v>0.55908424207639817</v>
       </c>
       <c r="L84">
-        <v>0.32725282743524259</v>
+        <v>0.33242827405195041</v>
       </c>
       <c r="M84">
-        <v>0.26682294539437396</v>
+        <v>0.27109466036054564</v>
       </c>
       <c r="N84">
-        <v>0.39714361749312516</v>
+        <v>0.39940789182979097</v>
       </c>
       <c r="O84">
-        <v>0.53658536585365857</v>
+        <v>0.6100746268656716</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
@@ -4121,46 +3952,46 @@
         <v>10</v>
       </c>
       <c r="B85">
-        <v>0.54251072561089353</v>
+        <v>0.54395686128672371</v>
       </c>
       <c r="C85">
-        <v>0.8089887640449438</v>
+        <v>0.83521809369951538</v>
       </c>
       <c r="D85">
-        <v>0.61707307339266471</v>
+        <v>0.61836767162516904</v>
       </c>
       <c r="E85">
-        <v>0.9840643496736986</v>
+        <v>0.98410535876475935</v>
       </c>
       <c r="F85">
-        <v>0.9053966610586256</v>
+        <v>0.90574228487922293</v>
       </c>
       <c r="G85">
-        <v>0.8283185840707965</v>
+        <v>0.83148751357220407</v>
       </c>
       <c r="H85">
-        <v>0.75730544447862191</v>
+        <v>0.75940231754421628</v>
       </c>
       <c r="I85">
-        <v>0.5915615484993475</v>
+        <v>0.6061241610738255</v>
       </c>
       <c r="J85">
-        <v>0.25559322033898307</v>
+        <v>0.27644151565074138</v>
       </c>
       <c r="K85">
-        <v>0.59245960502692996</v>
+        <v>0.59466870735284738</v>
       </c>
       <c r="L85">
-        <v>0.35224370667639548</v>
+        <v>0.35722689836184268</v>
       </c>
       <c r="M85">
-        <v>0.30060672917815773</v>
+        <v>0.30468160943176364</v>
       </c>
       <c r="N85">
-        <v>0.41053845471480527</v>
+        <v>0.41275241924793427</v>
       </c>
       <c r="O85">
-        <v>0.51884700665188466</v>
+        <v>0.59514925373134331</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -4168,46 +3999,46 @@
         <v>11</v>
       </c>
       <c r="B86">
-        <v>0.50508513312764258</v>
+        <v>0.50707538222239079</v>
       </c>
       <c r="C86">
-        <v>0.85539714867617112</v>
+        <v>0.88107202680066998</v>
       </c>
       <c r="D86">
-        <v>0.5993088695079809</v>
+        <v>0.60104857868436146</v>
       </c>
       <c r="E86">
-        <v>0.98009672619047616</v>
+        <v>0.98016191829923982</v>
       </c>
       <c r="F86">
-        <v>0.78287567567567573</v>
+        <v>0.78386638543325726</v>
       </c>
       <c r="G86">
-        <v>0.73589341692789967</v>
+        <v>0.74126679462571976</v>
       </c>
       <c r="H86">
-        <v>0.69660861594867096</v>
+        <v>0.70024903780846726</v>
       </c>
       <c r="I86">
-        <v>0.58675078864353314</v>
+        <v>0.60856573705179284</v>
       </c>
       <c r="J86">
-        <v>0.26057529610829105</v>
+        <v>0.28618098660568442</v>
       </c>
       <c r="K86">
-        <v>0.60479806464619312</v>
+        <v>0.60759324748115029</v>
       </c>
       <c r="L86">
-        <v>0.26406295540658697</v>
+        <v>0.27156457351668428</v>
       </c>
       <c r="M86">
-        <v>0.2218334499650105</v>
+        <v>0.22756321200333426</v>
       </c>
       <c r="N86">
-        <v>0.32499059089198346</v>
+        <v>0.32834004306712855</v>
       </c>
       <c r="O86">
-        <v>0.5236768802228412</v>
+        <v>0.63225806451612898</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -4215,46 +4046,46 @@
         <v>12</v>
       </c>
       <c r="B87">
-        <v>0.49144859635089322</v>
+        <v>0.49349368337190336</v>
       </c>
       <c r="C87">
-        <v>0.72097759674134421</v>
+        <v>0.77051926298157458</v>
       </c>
       <c r="D87">
-        <v>0.69038999506335363</v>
+        <v>0.6917342508396821</v>
       </c>
       <c r="E87">
-        <v>1.0037202380952381</v>
+        <v>1.0037080526543476</v>
       </c>
       <c r="F87">
-        <v>0.911827027027027</v>
+        <v>0.91222934871507899</v>
       </c>
       <c r="G87">
-        <v>0.88244514106583072</v>
+        <v>0.88483685220729369</v>
       </c>
       <c r="H87">
-        <v>0.65421631530705771</v>
+        <v>0.65836540638442387</v>
       </c>
       <c r="I87">
-        <v>0.58464773922187174</v>
+        <v>0.60657370517928288</v>
       </c>
       <c r="J87">
-        <v>0.23688663282571912</v>
+        <v>0.26331264292714801</v>
       </c>
       <c r="K87">
-        <v>0.58840131711578525</v>
+        <v>0.59131247080803362</v>
       </c>
       <c r="L87">
-        <v>0.32177207811133779</v>
+        <v>0.32868545052408887</v>
       </c>
       <c r="M87">
-        <v>0.26899930020993701</v>
+        <v>0.27438177271464298</v>
       </c>
       <c r="N87">
-        <v>0.46170493037260069</v>
+        <v>0.46437599475704522</v>
       </c>
       <c r="O87">
-        <v>0.74651810584958223</v>
+        <v>0.80430107526881722</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -4262,46 +4093,46 @@
         <v>13</v>
       </c>
       <c r="B88">
-        <v>0.52992039005066083</v>
+        <v>0.53181076672104399</v>
       </c>
       <c r="C88">
-        <v>0.6761710794297352</v>
+        <v>0.73366834170854267</v>
       </c>
       <c r="D88">
-        <v>0.62678953430969231</v>
+        <v>0.62840992872941759</v>
       </c>
       <c r="E88">
-        <v>1.0650421626984128</v>
+        <v>1.0648291205735121</v>
       </c>
       <c r="F88">
-        <v>0.82577297297297292</v>
+        <v>0.82656794800051658</v>
       </c>
       <c r="G88">
-        <v>0.86520376175548586</v>
+        <v>0.86794625719769669</v>
       </c>
       <c r="H88">
-        <v>0.71998166819431719</v>
+        <v>0.72334163459361556</v>
       </c>
       <c r="I88">
-        <v>0.67613038906414302</v>
+        <v>0.69322709163346619</v>
       </c>
       <c r="J88">
-        <v>0.29373942470389169</v>
+        <v>0.31819666775563543</v>
       </c>
       <c r="K88">
-        <v>0.69672737047241451</v>
+        <v>0.69887235604190301</v>
       </c>
       <c r="L88">
-        <v>0.32254930535315263</v>
+        <v>0.32945475526492934</v>
       </c>
       <c r="M88">
-        <v>0.32106368089573128</v>
+        <v>0.32606279522089471</v>
       </c>
       <c r="N88">
-        <v>0.38963116296575084</v>
+        <v>0.39265986330867897</v>
       </c>
       <c r="O88">
-        <v>0.69080779944289694</v>
+        <v>0.76129032258064511</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
@@ -4309,46 +4140,46 @@
         <v>14</v>
       </c>
       <c r="B89">
-        <v>0.54203329143335999</v>
+        <v>0.5438749573200804</v>
       </c>
       <c r="C89">
-        <v>0.85539714867617112</v>
+        <v>0.88107202680066998</v>
       </c>
       <c r="D89">
-        <v>0.6565739674181339</v>
+        <v>0.65806504464651427</v>
       </c>
       <c r="E89">
-        <v>1.0201512896825398</v>
+        <v>1.02008528521105</v>
       </c>
       <c r="F89">
-        <v>0.86633513513513516</v>
+        <v>0.86694503034738069</v>
       </c>
       <c r="G89">
-        <v>0.8420846394984326</v>
+        <v>0.84529750479846444</v>
       </c>
       <c r="H89">
-        <v>0.68263061411549042</v>
+        <v>0.68643875933891785</v>
       </c>
       <c r="I89">
-        <v>0.88538380651945325</v>
+        <v>0.89143426294820716</v>
       </c>
       <c r="J89">
-        <v>0.29306260575296106</v>
+        <v>0.31754328650767721</v>
       </c>
       <c r="K89">
-        <v>0.60063167797863048</v>
+        <v>0.60345632881830924</v>
       </c>
       <c r="L89">
-        <v>0.35655299718255123</v>
+        <v>0.36311183767669969</v>
       </c>
       <c r="M89">
-        <v>0.25962211336599023</v>
+        <v>0.2650736315643234</v>
       </c>
       <c r="N89">
-        <v>0.42745577719232219</v>
+        <v>0.43029678869019755</v>
       </c>
       <c r="O89">
-        <v>0.6740947075208914</v>
+        <v>0.74838709677419357</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -4356,46 +4187,46 @@
         <v>15</v>
       </c>
       <c r="B90">
-        <v>0.53692911286329181</v>
+        <v>0.53879130467771919</v>
       </c>
       <c r="C90">
-        <v>0.76171079429735233</v>
+        <v>0.8040201005025126</v>
       </c>
       <c r="D90">
-        <v>0.70141517195984859</v>
+        <v>0.70271155894159087</v>
       </c>
       <c r="E90">
-        <v>1.0430927579365079</v>
+        <v>1.0429516099128608</v>
       </c>
       <c r="F90">
-        <v>0.91874594594594594</v>
+        <v>0.9191166975162498</v>
       </c>
       <c r="G90">
-        <v>0.85697492163009403</v>
+        <v>0.85988483685220729</v>
       </c>
       <c r="H90">
-        <v>0.63107241063244734</v>
+        <v>0.63549920760697309</v>
       </c>
       <c r="I90">
-        <v>0.619348054679285</v>
+        <v>0.6394422310756972</v>
       </c>
       <c r="J90">
-        <v>0.28967851099830794</v>
+        <v>0.31427638026788629</v>
       </c>
       <c r="K90">
-        <v>0.65331630938780993</v>
+        <v>0.65576833255488087</v>
       </c>
       <c r="L90">
-        <v>0.33945399786262509</v>
+        <v>0.34618713337820944</v>
       </c>
       <c r="M90">
-        <v>0.27921623512946114</v>
+        <v>0.28452347874409556</v>
       </c>
       <c r="N90">
-        <v>0.45775310500564548</v>
+        <v>0.46044377867240893</v>
       </c>
       <c r="O90">
-        <v>0.75766016713091922</v>
+        <v>0.81290322580645158</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -4403,46 +4234,46 @@
         <v>16</v>
       </c>
       <c r="B91">
-        <v>0.4721571454316093</v>
+        <v>0.4742227328211388</v>
       </c>
       <c r="C91">
-        <v>0.78947368421052633</v>
+        <v>0.83008849557522124</v>
       </c>
       <c r="D91">
-        <v>0.61981894206958144</v>
+        <v>0.6214938161830087</v>
       </c>
       <c r="E91">
-        <v>0.93911493911493915</v>
+        <v>0.93931140649515976</v>
       </c>
       <c r="F91">
-        <v>0.88439306358381498</v>
+        <v>0.88495066153369617</v>
       </c>
       <c r="G91">
-        <v>0.81243523316062172</v>
+        <v>0.8165788406972031</v>
       </c>
       <c r="H91">
-        <v>0.61742006615214995</v>
+        <v>0.6219631768166467</v>
       </c>
       <c r="I91">
-        <v>0.57434944237918217</v>
+        <v>0.5948695267580717</v>
       </c>
       <c r="J91">
-        <v>0.26027397260273971</v>
+        <v>0.28455284552845528</v>
       </c>
       <c r="K91">
-        <v>0.62596309485270318</v>
+        <v>0.62858428700012858</v>
       </c>
       <c r="L91">
-        <v>0.28837296738415263</v>
+        <v>0.2955898771864533</v>
       </c>
       <c r="M91">
-        <v>0.28124781910810243</v>
+        <v>0.28667405457819645</v>
       </c>
       <c r="N91">
-        <v>0.35957476701166113</v>
+        <v>0.36282732270990586</v>
       </c>
       <c r="O91">
-        <v>0.6067415730337079</v>
+        <v>0.69892473118279574</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -4450,46 +4281,46 @@
         <v>17</v>
       </c>
       <c r="B92">
-        <v>0.5437376103802487</v>
+        <v>0.54552308465570476</v>
       </c>
       <c r="C92">
-        <v>0.79385964912280704</v>
+        <v>0.83362831858407083</v>
       </c>
       <c r="D92">
-        <v>0.7274793975561239</v>
+        <v>0.72867997736642143</v>
       </c>
       <c r="E92">
-        <v>1.0531036531036531</v>
+        <v>1.0529322952130022</v>
       </c>
       <c r="F92">
-        <v>0.91880835927078697</v>
+        <v>0.91919996460020359</v>
       </c>
       <c r="G92">
-        <v>0.90943005181347147</v>
+        <v>0.91143088771787595</v>
       </c>
       <c r="H92">
-        <v>0.68599779492833513</v>
+        <v>0.68972654973308645</v>
       </c>
       <c r="I92">
-        <v>0.59293680297397766</v>
+        <v>0.61256081379920391</v>
       </c>
       <c r="J92">
-        <v>0.23163138231631383</v>
+        <v>0.25685034628124059</v>
       </c>
       <c r="K92">
-        <v>0.62997733894464225</v>
+        <v>0.6325703998971326</v>
       </c>
       <c r="L92">
-        <v>0.36187611617633236</v>
+        <v>0.36834759955340529</v>
       </c>
       <c r="M92">
-        <v>0.25626352152976484</v>
+        <v>0.26187837650644136</v>
       </c>
       <c r="N92">
-        <v>0.42382803353158804</v>
+        <v>0.42675426334917527</v>
       </c>
       <c r="O92">
-        <v>0.6741573033707865</v>
+        <v>0.75053763440860211</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -4497,46 +4328,46 @@
         <v>18</v>
       </c>
       <c r="B93">
-        <v>0.45774013335736169</v>
+        <v>0.45986213829252531</v>
       </c>
       <c r="C93">
-        <v>0.78947368421052633</v>
+        <v>0.83008849557522124</v>
       </c>
       <c r="D93">
-        <v>0.66374375837291444</v>
+        <v>0.66522512327216876</v>
       </c>
       <c r="E93">
-        <v>0.96287496287496288</v>
+        <v>0.9629947600580242</v>
       </c>
       <c r="F93">
-        <v>0.91231658514895508</v>
+        <v>0.912739501747865</v>
       </c>
       <c r="G93">
-        <v>0.8704663212435233</v>
+        <v>0.87332792865828945</v>
       </c>
       <c r="H93">
-        <v>0.60529217199558982</v>
+        <v>0.6099793005774049</v>
       </c>
       <c r="I93">
-        <v>0.57063197026022305</v>
+        <v>0.59133126934984526</v>
       </c>
       <c r="J93">
-        <v>0.27833125778331258</v>
+        <v>0.30201746461909063</v>
       </c>
       <c r="K93">
-        <v>0.64629329880220132</v>
+        <v>0.6487720200591488</v>
       </c>
       <c r="L93">
-        <v>0.33142212613967476</v>
+        <v>0.33820245627093415</v>
       </c>
       <c r="M93">
-        <v>0.24049131132668017</v>
+        <v>0.24622523895276355</v>
       </c>
       <c r="N93">
-        <v>0.4201751510326418</v>
+        <v>0.42311993290466871</v>
       </c>
       <c r="O93">
-        <v>0.5955056179775281</v>
+        <v>0.69032258064516128</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -4544,46 +4375,46 @@
         <v>19</v>
       </c>
       <c r="B94">
-        <v>0.46120021625518109</v>
+        <v>0.46330868097939254</v>
       </c>
       <c r="C94">
-        <v>0.60087719298245612</v>
+        <v>0.6778761061946903</v>
       </c>
       <c r="D94">
-        <v>0.64003572443470147</v>
+        <v>0.64162153423328749</v>
       </c>
       <c r="E94">
-        <v>0.97588357588357588</v>
+        <v>0.97596139613369248</v>
       </c>
       <c r="F94">
-        <v>0.91453979546465092</v>
+        <v>0.91495198902606312</v>
       </c>
       <c r="G94">
-        <v>0.80829015544041449</v>
+        <v>0.81252533441426833</v>
       </c>
       <c r="H94">
-        <v>0.72436604189636167</v>
+        <v>0.72763917638086939</v>
       </c>
       <c r="I94">
-        <v>0.55390334572490707</v>
+        <v>0.57540911101282621</v>
       </c>
       <c r="J94">
-        <v>0.20797011207970112</v>
+        <v>0.23396567299006324</v>
       </c>
       <c r="K94">
-        <v>0.54593719650372285</v>
+        <v>0.54911919763404915</v>
       </c>
       <c r="L94">
-        <v>0.29833630980355297</v>
+        <v>0.30545217714923706</v>
       </c>
       <c r="M94">
-        <v>0.30036987926582454</v>
+        <v>0.30565175232026598</v>
       </c>
       <c r="N94">
-        <v>0.42232941507048188</v>
+        <v>0.42526325598732645</v>
       </c>
       <c r="O94">
-        <v>0.6292134831460674</v>
+        <v>0.71612903225806457</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -4591,108 +4422,52 @@
         <v>20</v>
       </c>
       <c r="B95">
-        <v>0.47965399171021805</v>
+        <v>0.48169024197601779</v>
       </c>
       <c r="C95">
-        <v>0.75</v>
+        <v>0.7982300884955752</v>
       </c>
       <c r="D95">
-        <v>0.67251248325417123</v>
+        <v>0.67395521784819334</v>
       </c>
       <c r="E95">
-        <v>0.94244134244134248</v>
+        <v>0.94262707599396078</v>
       </c>
       <c r="F95">
-        <v>0.89364161849710988</v>
+        <v>0.89415460861100049</v>
       </c>
       <c r="G95">
-        <v>0.75108808290155438</v>
+        <v>0.75658694770976898</v>
       </c>
       <c r="H95">
-        <v>0.67364939360529219</v>
+        <v>0.67752478483494938</v>
       </c>
       <c r="I95">
-        <v>0.59572490706319703</v>
+        <v>0.61521450685537371</v>
       </c>
       <c r="J95">
-        <v>0.26027397260273971</v>
+        <v>0.28455284552845528</v>
       </c>
       <c r="K95">
-        <v>0.56328909032049201</v>
+        <v>0.56634949209206631</v>
       </c>
       <c r="L95">
-        <v>0.35755240154149825</v>
+        <v>0.36406773353181987</v>
       </c>
       <c r="M95">
-        <v>0.38481401353897687</v>
+        <v>0.38945837373597453</v>
       </c>
       <c r="N95">
-        <v>0.36566290450990491</v>
+        <v>0.36888454011741684</v>
       </c>
       <c r="O95">
-        <v>0.56741573033707871</v>
+        <v>0.66881720430107527</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
-      <c r="B96">
-        <f t="shared" ref="B96:O96" si="3" xml:space="preserve"> MEDIAN(B76:B95)</f>
-        <v>0.52873283237124435</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="3"/>
-        <v>0.76475052823481848</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="3"/>
-        <v>0.64937382613306471</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="3"/>
-        <v>0.981848535437851</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="3"/>
-        <v>0.90162829758462459</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="3"/>
-        <v>0.86180542070075172</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="3"/>
-        <v>0.68058698739027368</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="3"/>
-        <v>0.58821426488850936</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="3"/>
-        <v>0.29137055837563453</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="3"/>
-        <v>0.60271487131241175</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="3"/>
-        <v>0.3427622955922166</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="3"/>
-        <v>0.28023202711878181</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="3"/>
-        <v>0.41774214789692066</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="3"/>
-        <v>0.56536725381482755</v>
-      </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -4705,59 +4480,59 @@
       </c>
       <c r="B100">
         <f xml:space="preserve"> MEDIAN(B4:B23)</f>
-        <v>0.86474976737360687</v>
+        <v>0.86508494322137408</v>
       </c>
       <c r="C100">
-        <f t="shared" ref="C100:O100" si="4" xml:space="preserve"> MEDIAN(C4:C23)</f>
-        <v>0.85869565217391308</v>
+        <f t="shared" ref="C100:O100" si="0" xml:space="preserve"> MEDIAN(C4:C23)</f>
+        <v>0.87399030694668811</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
-        <v>0.90363770734110693</v>
+        <f t="shared" si="0"/>
+        <v>0.90386663389858279</v>
       </c>
       <c r="E100">
-        <f t="shared" si="4"/>
-        <v>0.76070895220811607</v>
+        <f t="shared" si="0"/>
+        <v>0.76119065200869862</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
-        <v>0.7544896692135501</v>
+        <f t="shared" si="0"/>
+        <v>0.75514271337052441</v>
       </c>
       <c r="G100">
-        <f t="shared" si="4"/>
-        <v>0.63895146426377236</v>
+        <f t="shared" si="0"/>
+        <v>0.64268342115930277</v>
       </c>
       <c r="H100">
-        <f t="shared" si="4"/>
-        <v>0.53176459396768605</v>
+        <f t="shared" si="0"/>
+        <v>0.53491495769294883</v>
       </c>
       <c r="I100">
-        <f t="shared" si="4"/>
-        <v>0.54389140271493219</v>
+        <f t="shared" si="0"/>
+        <v>0.5556398906805331</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
-        <v>0.42018776330702934</v>
+        <f t="shared" si="0"/>
+        <v>0.43013404742926153</v>
       </c>
       <c r="K100">
-        <f t="shared" si="4"/>
-        <v>0.5781869768058957</v>
+        <f t="shared" si="0"/>
+        <v>0.57977716722723138</v>
       </c>
       <c r="L100">
-        <f t="shared" si="4"/>
-        <v>0.3466821050302562</v>
+        <f t="shared" si="0"/>
+        <v>0.35021230578823981</v>
       </c>
       <c r="M100">
-        <f t="shared" si="4"/>
-        <v>0.30506502896430876</v>
+        <f t="shared" si="0"/>
+        <v>0.30786812577919381</v>
       </c>
       <c r="N100">
-        <f t="shared" si="4"/>
-        <v>0.37338695967412538</v>
+        <f t="shared" si="0"/>
+        <v>0.37505945308265798</v>
       </c>
       <c r="O100">
-        <f t="shared" si="4"/>
-        <v>0.31900562124442722</v>
+        <f t="shared" si="0"/>
+        <v>0.40298507462686567</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -4766,59 +4541,59 @@
       </c>
       <c r="B101">
         <f xml:space="preserve"> MEDIAN(B28:B47)</f>
-        <v>0.53341824352323486</v>
+        <v>0.53515979075485609</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:O101" si="5" xml:space="preserve"> MEDIAN(C28:C47)</f>
-        <v>0.44441135289430733</v>
+        <f t="shared" ref="C101:O101" si="1" xml:space="preserve"> MEDIAN(C28:C47)</f>
+        <v>0.5357357009399939</v>
       </c>
       <c r="D101">
-        <f t="shared" si="5"/>
-        <v>0.49432565789473681</v>
+        <f t="shared" si="1"/>
+        <v>0.49627263045793396</v>
       </c>
       <c r="E101">
-        <f t="shared" si="5"/>
-        <v>0.42052986957285815</v>
+        <f t="shared" si="1"/>
+        <v>0.42224104011497932</v>
       </c>
       <c r="F101">
-        <f t="shared" si="5"/>
-        <v>0.50645507312704829</v>
+        <f t="shared" si="1"/>
+        <v>0.50860012881321692</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
-        <v>0.50781057469956103</v>
+        <f t="shared" si="1"/>
+        <v>0.51794522856936753</v>
       </c>
       <c r="H101">
-        <f t="shared" si="5"/>
-        <v>0.49890381579121357</v>
+        <f t="shared" si="1"/>
+        <v>0.50390465624923353</v>
       </c>
       <c r="I101">
-        <f t="shared" si="5"/>
-        <v>0.39009020536114131</v>
+        <f t="shared" si="1"/>
+        <v>0.41852823117084959</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
-        <v>0.17026702142222006</v>
+        <f t="shared" si="1"/>
+        <v>0.19661018138978256</v>
       </c>
       <c r="K101">
-        <f t="shared" si="5"/>
-        <v>0.18417552108392926</v>
+        <f t="shared" si="1"/>
+        <v>0.18915985383964798</v>
       </c>
       <c r="L101">
-        <f t="shared" si="5"/>
-        <v>0.24291033649395768</v>
+        <f t="shared" si="1"/>
+        <v>0.25003075554808618</v>
       </c>
       <c r="M101">
-        <f t="shared" si="5"/>
-        <v>0.41169434280889389</v>
+        <f t="shared" si="1"/>
+        <v>0.41543732084178142</v>
       </c>
       <c r="N101">
-        <f t="shared" si="5"/>
-        <v>0.20989268107100573</v>
+        <f t="shared" si="1"/>
+        <v>0.2134821275657755</v>
       </c>
       <c r="O101">
-        <f t="shared" si="5"/>
-        <v>9.1763341067285384E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.27561587225164497</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -4826,60 +4601,60 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <f xml:space="preserve"> MEDIAN(B52:B71)</f>
-        <v>0.94908438483148394</v>
+        <f t="shared" ref="B102:O102" si="2" xml:space="preserve"> MEDIAN(B52:B71)</f>
+        <v>0.94925746075186268</v>
       </c>
       <c r="C102">
-        <f xml:space="preserve"> MEDIAN(C52:C71)</f>
-        <v>1.5681818181818183</v>
+        <f t="shared" si="2"/>
+        <v>1.4846526655896608</v>
       </c>
       <c r="D102">
-        <f xml:space="preserve"> MEDIAN(D52:D71)</f>
-        <v>1.40477730153507</v>
+        <f t="shared" si="2"/>
+        <v>1.4033199202978806</v>
       </c>
       <c r="E102">
-        <f xml:space="preserve"> MEDIAN(E52:E71)</f>
-        <v>0.98985415833830448</v>
+        <f t="shared" si="2"/>
+        <v>0.98988283886781103</v>
       </c>
       <c r="F102">
-        <f xml:space="preserve"> MEDIAN(F52:F71)</f>
-        <v>1.1706055559005195</v>
+        <f t="shared" si="2"/>
+        <v>1.1699233993479154</v>
       </c>
       <c r="G102">
-        <f xml:space="preserve"> MEDIAN(G52:G71)</f>
-        <v>1.2102348249889232</v>
+        <f t="shared" si="2"/>
+        <v>1.2060803474484256</v>
       </c>
       <c r="H102">
-        <f xml:space="preserve"> MEDIAN(H52:H71)</f>
-        <v>1.0550091491308327</v>
+        <f t="shared" si="2"/>
+        <v>1.0544487208512565</v>
       </c>
       <c r="I102">
-        <f xml:space="preserve"> MEDIAN(I52:I71)</f>
-        <v>0.89650534602019194</v>
+        <f t="shared" si="2"/>
+        <v>0.90070478180299784</v>
       </c>
       <c r="J102">
-        <f xml:space="preserve"> MEDIAN(J52:J71)</f>
-        <v>0.51835924578233539</v>
+        <f t="shared" si="2"/>
+        <v>0.53303399615137903</v>
       </c>
       <c r="K102">
-        <f xml:space="preserve"> MEDIAN(K52:K71)</f>
-        <v>0.80047167325587287</v>
+        <f t="shared" si="2"/>
+        <v>0.80165044079636472</v>
       </c>
       <c r="L102">
-        <f xml:space="preserve"> MEDIAN(L52:L71)</f>
-        <v>0.85364596621805444</v>
+        <f t="shared" si="2"/>
+        <v>0.85488182092043963</v>
       </c>
       <c r="M102">
-        <f xml:space="preserve"> MEDIAN(M52:M71)</f>
-        <v>1.2976963889591879</v>
+        <f t="shared" si="2"/>
+        <v>1.2958686904956322</v>
       </c>
       <c r="N102">
-        <f xml:space="preserve"> MEDIAN(N52:N71)</f>
-        <v>0.78814576814707582</v>
+        <f t="shared" si="2"/>
+        <v>0.78900110692769321</v>
       </c>
       <c r="O102">
-        <f xml:space="preserve"> MEDIAN(O52:O71)</f>
-        <v>1.1053274596182083</v>
+        <f t="shared" si="2"/>
+        <v>1.0859803748751395</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -4887,309 +4662,60 @@
         <v>3</v>
       </c>
       <c r="B103">
-        <f xml:space="preserve"> MEDIAN(B76:B95)</f>
-        <v>0.52873283237124435</v>
+        <f t="shared" ref="B103:O103" si="3" xml:space="preserve"> MEDIAN(B76:B95)</f>
+        <v>0.53049306108564043</v>
       </c>
       <c r="C103">
-        <f xml:space="preserve"> MEDIAN(C76:C95)</f>
-        <v>0.76475052823481848</v>
+        <f t="shared" si="3"/>
+        <v>0.8018484993627264</v>
       </c>
       <c r="D103">
-        <f xml:space="preserve"> MEDIAN(D76:D95)</f>
-        <v>0.64937382613306471</v>
+        <f t="shared" si="3"/>
+        <v>0.65077427614465699</v>
       </c>
       <c r="E103">
-        <f xml:space="preserve"> MEDIAN(E76:E95)</f>
-        <v>0.981848535437851</v>
+        <f t="shared" si="3"/>
+        <v>0.98189524674538298</v>
       </c>
       <c r="F103">
-        <f xml:space="preserve"> MEDIAN(F76:F95)</f>
-        <v>0.90162829758462459</v>
+        <f t="shared" si="3"/>
+        <v>0.90200223308747718</v>
       </c>
       <c r="G103">
-        <f xml:space="preserve"> MEDIAN(G76:G95)</f>
-        <v>0.86180542070075172</v>
+        <f t="shared" si="3"/>
+        <v>0.86448344347398409</v>
       </c>
       <c r="H103">
-        <f xml:space="preserve"> MEDIAN(H76:H95)</f>
-        <v>0.68058698739027368</v>
+        <f t="shared" si="3"/>
+        <v>0.68345301242084977</v>
       </c>
       <c r="I103">
-        <f xml:space="preserve"> MEDIAN(I76:I95)</f>
-        <v>0.58821426488850936</v>
+        <f t="shared" si="3"/>
+        <v>0.60574146291656761</v>
       </c>
       <c r="J103">
-        <f xml:space="preserve"> MEDIAN(J76:J95)</f>
-        <v>0.29137055837563453</v>
+        <f t="shared" si="3"/>
+        <v>0.31477128827377637</v>
       </c>
       <c r="K103">
-        <f xml:space="preserve"> MEDIAN(K76:K95)</f>
-        <v>0.60271487131241175</v>
+        <f t="shared" si="3"/>
+        <v>0.60552478814972976</v>
       </c>
       <c r="L103">
-        <f xml:space="preserve"> MEDIAN(L76:L95)</f>
-        <v>0.3427622955922166</v>
+        <f t="shared" si="3"/>
+        <v>0.34814355089829074</v>
       </c>
       <c r="M103">
-        <f xml:space="preserve"> MEDIAN(M76:M95)</f>
-        <v>0.28023202711878181</v>
+        <f t="shared" si="3"/>
+        <v>0.28559876666114603</v>
       </c>
       <c r="N103">
-        <f xml:space="preserve"> MEDIAN(N76:N95)</f>
-        <v>0.41774214789692066</v>
+        <f t="shared" si="3"/>
+        <v>0.42043412138808239</v>
       </c>
       <c r="O103">
-        <f xml:space="preserve"> MEDIAN(O76:O95)</f>
-        <v>0.56536725381482755</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <f t="shared" ref="B107:N107" si="6" xml:space="preserve"> (B100 - AVERAGE(B100:B103)) / _xlfn.STDEV.P(B100:B103)</f>
-        <v>0.76599969614657071</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="6"/>
-        <v>-0.12259891217494112</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="6"/>
-        <v>0.1176295685420377</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="6"/>
-        <v>-0.11897898224407245</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="6"/>
-        <v>-0.32758545063326239</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="6"/>
-        <v>-0.62277439610171625</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="6"/>
-        <v>-0.72400603018779375</v>
-      </c>
-      <c r="I107">
-        <f t="shared" si="6"/>
-        <v>-0.33064873876574136</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="6"/>
-        <v>0.53400075388215895</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="6"/>
-        <v>0.16463909786198636</v>
-      </c>
-      <c r="L107">
-        <f t="shared" si="6"/>
-        <v>-0.4181453430671867</v>
-      </c>
-      <c r="M107">
-        <f t="shared" si="6"/>
-        <v>-0.63813784648496452</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="6"/>
-        <v>-0.34948515192336194</v>
-      </c>
-      <c r="O107">
-        <f xml:space="preserve"> (O100 - AVERAGE(O100:O103)) / _xlfn.STDEV.P(O100:O103)</f>
-        <v>-0.53414260756677845</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108">
-        <f t="shared" ref="B108:N108" si="7" xml:space="preserve"> (B101 - AVERAGE(B100:B103)) / _xlfn.STDEV.P(B100:B103)</f>
-        <v>-0.97529581742786242</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="7"/>
-        <v>-1.1320717620070673</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="7"/>
-        <v>-1.0679967715880059</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="7"/>
-        <v>-1.5893536698659041</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="7"/>
-        <v>-1.3586437060472727</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="7"/>
-        <v>-1.1155142354308292</v>
-      </c>
-      <c r="H108">
-        <f t="shared" si="7"/>
-        <v>-0.87288695567195618</v>
-      </c>
-      <c r="I108">
-        <f t="shared" si="7"/>
-        <v>-1.1672875563845453</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="7"/>
-        <v>-1.3686908581149277</v>
-      </c>
-      <c r="K108">
-        <f xml:space="preserve"> (K101 - AVERAGE(K100:K103)) / _xlfn.STDEV.P(K100:K103)</f>
-        <v>-1.5981378290037762</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="7"/>
-        <v>-0.85285302080599978</v>
-      </c>
-      <c r="M108">
-        <f t="shared" si="7"/>
-        <v>-0.38481525443863118</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="7"/>
-        <v>-1.1226246862531866</v>
-      </c>
-      <c r="O108">
-        <f xml:space="preserve"> (O101 - AVERAGE(O100:O103)) / _xlfn.STDEV.P(O100:O103)</f>
-        <v>-1.1369415976092236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109">
-        <f xml:space="preserve"> (B102 - AVERAGE(B100:B103)) / _xlfn.STDEV.P(B100:B103)</f>
-        <v>1.2092158722347082</v>
-      </c>
-      <c r="C109">
-        <f t="shared" ref="B109:N109" si="8" xml:space="preserve"> (C102 - AVERAGE(C100:C103)) / _xlfn.STDEV.P(C100:C103)</f>
-        <v>1.6061825626766844</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="8"/>
-        <v>1.5692465042323067</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="8"/>
-        <v>0.87146789730429086</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="8"/>
-        <v>1.4021721192659524</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="8"/>
-        <v>1.5237267623891817</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="8"/>
-        <v>1.646635748557832</v>
-      </c>
-      <c r="I109">
-        <f t="shared" si="8"/>
-        <v>1.5874801033927497</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="8"/>
-        <v>1.2813979280197783</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="8"/>
-        <v>1.1591237211057321</v>
-      </c>
-      <c r="L109">
-        <f t="shared" si="8"/>
-        <v>1.7055640810172865</v>
-      </c>
-      <c r="M109">
-        <f t="shared" si="8"/>
-        <v>1.7200874856866664</v>
-      </c>
-      <c r="N109">
-        <f t="shared" si="8"/>
-        <v>1.6118460627326787</v>
-      </c>
-      <c r="O109">
-        <f xml:space="preserve"> (O102 - AVERAGE(O100:O103)) / _xlfn.STDEV.P(O100:O103)</f>
-        <v>1.5517104724610329</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110">
-        <f t="shared" ref="B110:N110" si="9" xml:space="preserve"> (B103 - AVERAGE(B100:B103)) / _xlfn.STDEV.P(B100:B103)</f>
-        <v>-0.99991975095341823</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="9"/>
-        <v>-0.35151188849467546</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="9"/>
-        <v>-0.61887930118633849</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="9"/>
-        <v>0.83686475480568612</v>
-      </c>
-      <c r="F110">
-        <f xml:space="preserve"> (F103 - AVERAGE(F100:F103)) / _xlfn.STDEV.P(F100:F103)</f>
-        <v>0.28405703741458355</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="9"/>
-        <v>0.21456186914336495</v>
-      </c>
-      <c r="H110">
-        <f t="shared" si="9"/>
-        <v>-4.9742762698081047E-2</v>
-      </c>
-      <c r="I110">
-        <f t="shared" si="9"/>
-        <v>-8.9543808242462733E-2</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="9"/>
-        <v>-0.44670782378700941</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="9"/>
-        <v>0.27437501003605841</v>
-      </c>
-      <c r="L110">
-        <f t="shared" si="9"/>
-        <v>-0.43456571714409992</v>
-      </c>
-      <c r="M110">
-        <f t="shared" si="9"/>
-        <v>-0.69713438476307077</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="9"/>
-        <v>-0.13973622455613047</v>
-      </c>
-      <c r="O110">
-        <f xml:space="preserve"> (O103 - AVERAGE(O100:O103)) / _xlfn.STDEV.P(O100:O103)</f>
-        <v>0.11937373271496943</v>
+        <f t="shared" si="3"/>
+        <v>0.65225923967330623</v>
       </c>
     </row>
   </sheetData>
